--- a/data/genius_Bushido_Vom-Bordstein-bis-zur-Skyline.xlsx
+++ b/data/genius_Bushido_Vom-Bordstein-bis-zur-Skyline.xlsx
@@ -407,8 +407,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Songtext zu „Electrofaust“][Intro/Sample]„Wer hat dir den Auftrag gegeben mich umzubringen?Ich bezahle dir zweimal so viel, wenn du ihn umbringst.“„Hört sich gut an, aber ich kann das nicht akzeptierenIch habe den Auftrag angenommen und ich führe ihn ausDas bin ich meinem guten Ruf schuldig.“„Das werden wir ja sehen, ob du ihn ausführen kannstIch hab jedenfalls keine Angst vor dir und deinen faulen Tricks. Meine Faust ist stärker.“„Ich breche dir alle Knochen im Leib. Gegen mich hast du keine Chance...“[Part 1]Jetzt kommt mein Bezirk und der Rest kann gehnIch treff mich gerne am Block mit euch Kecks um ZehnIhr könnt runterfahr'n um wieder neu zu bootenIch bring den Sound aus dem Ghetto für achtzig Minuten!Ich bin ein New Kid on the BlockIhr seid alle zu shit für den JobDu bist down, weil deine Stars alle scheisse war'nBushido bringt Rap wieder zu den DreißigernMein Tape und Tempelhof rultDein Tape und Schöneberg buhtDeutschland kriegt Stress mit den Boyz n the HoodDu hast Pech, weil jeder Gangster jetzt auf dich spuckt!
-[Sample]„Na, wo bleibt deine berühmte Faust?“[Hook]Denn vom BordsteinBis zur SkylineDer Dschungel aus Beton, die Lunge voller SmogEs ist gut hier zu sein, denn ich lebe für den Block!Denn vom BordsteinBis zur SkylineWer hat Benzin im Blut und brennt den Asphalt wegDer Horizont wird schwarz, es wird jetzt Zeit für's Bett[Hook]Denn vom BordsteinBis zur SkylineDer Dschungel aus Beton, die Lunge voller SmogEs ist gut hier zu sein, denn ich lebe für den Block!Denn vom BordsteinBis zur SkylineWer hat Benzin im Blut und brennt den Asphalt wegDer Horizont wird schwarz, es wird jetzt Zeit für's Bett[Outro/Samples]Denn vom BordsteinBis zur Skyline„Gangsta - They say I walk around like I got a S on my chest“Denn vom BordsteinBis zur Skyline„Nah that's a semi-auto and a vest on my chest“Denn vom BordsteinBis zur Skyline„They say I walk around like I got a S on my chest“</t>
+          <t>[Songtext zu „Electrofaust“]
+[Intro/Sample]
+„Wer hat dir den Auftrag gegeben mich umzubringen?Ich bezahle dir zweimal so viel, wenn du ihn umbringst.“„Hört sich gut an, aber ich kann das nicht akzeptierenIch habe den Auftrag angenommen und ich führe ihn ausDas bin ich meinem guten Ruf schuldig.“„Das werden wir ja sehen, ob du ihn ausführen kannstIch hab jedenfalls keine Angst vor dir und deinen faulen Tricks. Meine Faust ist stärker.“„Ich breche dir alle Knochen im Leib. Gegen mich hast du keine Chance...“
+[Part 1]
+Jetzt kommt mein Bezirk und der Rest kann gehn
+Ich treff mich gerne am Block mit euch Kecks um Zehn
+Ihr könnt runterfahr'n um wieder neu zu booten
+Ich bring den Sound aus dem Ghetto für achtzig Minuten!
+Ich bin einNew Kid on the Block
+Ihr seid alle zu shit für den Job
+Du bist down, weil deine Stars alle scheisse war'n
+Bushido bringt Rap wieder zu den Dreißigern
+Mein Tape und Tempelhof rultDein Tape und Schöneberg buht
+Deutschland kriegt Stress mit den Boyz n the Hood
+Du hast Pech, weil jeder Gangster jetzt auf dich spuckt!
+[Sample]
+„Na, wo bleibt deine berühmte Faust?“
+[Hook]
+Denn vom Bordstein
+Bis zur Skyline
+Der Dschungel aus Beton, die Lunge voller Smog
+Es ist gut hier zu sein, denn ich lebe für den Block!
+Denn vom Bordstein
+Bis zur Skyline
+Wer hat Benzin im Blut und brennt den Asphalt weg
+Der Horizont wird schwarz, es wird jetzt Zeit für's Bett
+[Hook]
+Denn vom Bordstein
+Bis zur Skyline
+Der Dschungel aus Beton, die Lunge voller Smog
+Es ist gut hier zu sein, denn ich lebe für den Block!
+Denn vom Bordstein
+Bis zur Skyline
+Wer hat Benzin im Blut und brennt den Asphalt weg
+Der Horizont wird schwarz, es wird jetzt Zeit für's Bett
+[Outro/Samples]
+Denn vom Bordstein
+Bis zur Skyline
+„Gangsta - They say I walk around like I got a S on my chest“
+Denn vom Bordstein
+Bis zur Skyline
+„Nah that's a semi-auto and a vest on my chest“
+Denn vom Bordstein
+Bis zur Skyline
+„They say I walk around like I got a S on my chest“</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -462,10 +505,103 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Songtext zu „Bushido“ ft. Billy 13][Part 1: Bushido]Ich tue dir weh mit einer PunchlineFür mich seid ihr nur ganz kleinMein Style ist jetzt in und jeder will mit mir verwandt seinEs ist mein Tag, dein Sarg, mein LandHeute siehst du mich am Block und morgen auf der LeinwandIch krieg von Deutschland keinen DankWerde gehasst, werde verfluchtDoch mein Rap legt sich über die Szene wie ein schwarzes TuchEgal wie hart du tust ich bin die Nummer 1 für euchIhr guckt Yo! MTV Raps und macht den gleichen Scheiß auf deutschIch steh morgens auf und trink den Smog mit einem ZugDu schreibst 23 Texte und keiner davon ist gutIhr seid vernetzt und wartet jetzt auf meinen NewsletterSonny Black und Frank White, welche deutsche Crew ist besser?[Hook: Billy 13]BushidoSchrei seinen Namen laut und denk daranBushidoDass keiner von euch Kindern rappen kannBushidoSchrei seinen Namen laut und denk daranBushidoDas keiner von euch rappen kann
-[Interlude/Sample]„Vorwärts, leg dich mit der Fresse auf den Bordstein“[Part 2: Bushido]Wer ist der Hustler 1? Du willst sein wie Busta RhymesIch fress Anabolika und pumpe nachts im Knast alleinIch bin der mit dem sich alle identifizierenDu kannst A: alleine kommen oder B: ein Ziel verlierenIch rappe für Außenseiter, komm ich fick dich draußen weiterSchreibe über KangaROOS und kauf dir davon tausend KleiderSag mir ich passe nicht, pass auf ich hasse dichIch weiß du kannst es nicht und dass der Punch dich trifftWeil ich nicht brav bin kommt keiner auf den PausenhofHeul dir deine Augen rot ich hol mir jetzt dein PausenbrotGeh und bunker dich, ich scheiß ein ganzes Pfund auf dichErste Stunde und ich zieh die Kokaline im Unterricht[Hook: Billy 13]BushidoSchrei seinen Namen laut und denk daranBushidoDass keiner von euch Kindern rappen kannBushidoSchrei seinen Namen laut und denk daranBushidoDas keiner von euch rappen kann
-[Part 3: Bushido]Hör auf Billy mach die Augen zu und sag mir dannWarum Mister Rebell One immer noch nicht rappen kannErst war es Carlo Cokxxx jetzt ist jeder hart und flowtDu fickst nur mit deiner Freundin warum ist dein Arsch so rotDeine Mutter sagt ich wär ein wenig feindseligIhr habt nix zu tun dann kommt und hängt euch jetzt an meinen PenisDu bist ein DraufgängerRaus aus meinem Haus, PennerRap bringt dir kein Geld und du Schwuchtel fickst jetzt auch Männer?Wer hält das Mic fest und boxt dich an der Wand lang?Schreib über dein Dorf denn du Kecko hast keine PumpgunRapp wie du bistIch bin der der im stehen pisstZuviel Testosteron hat und dich mit Haut und Haaren frisst[Hook: Billy 13]BushidoSchrei seinen Namen laut und denk daranBushidoDass keiner von euch Kindern rappen kannBushidoSchrei seinen Namen laut und denk daranBushidoDas keiner von euch rappen kann
-[Bridge: Billy 13]Keiner hat es draufSo wie er auchWenn ihr böse guckt und wenn ihr Schwuchteln klautTempelhofAlle Hände hochKeiner kann schreibenIhr müsst ihn bitenMach dein Solo hartGeht jetzt nach Haus und weintTempelhofAlle Hände hoch[Hook: Billy 13]BushidoSchrei seinen Namen laut und denk daranBushidoDass keiner von euch Kindern rappen kannBushidoSchrei seinen Namen laut und denk daranBushidoDas keiner von euch rappen kann[Outro: Billy 13]BushidoBushidoBushidoBushido</t>
+          <t>[Songtext zu „Bushido“ ft. Billy 13]
+[Part 1: Bushido]
+Ich tue dir weh mit einer Punchline
+Für mich seid ihr nur ganz klein
+Mein Style ist jetzt in und jeder will mit mir verwandt sein
+Es ist mein Tag, dein Sarg, mein Land
+Heute siehst du mich am Block und morgen auf der Leinwand
+Ich krieg von Deutschland keinen DankWerde gehasst, werde verfluchtDoch mein Rap legt sich über die Szene wie ein schwarzes Tuch
+Egal wie hart du tust ich bin die Nummer 1 für euch
+Ihr guckt Yo! MTV Raps und macht den gleichen Scheiß auf deutsch
+Ich steh morgens auf und trink den Smog mit einem Zug
+Du schreibst 23 Texte und keiner davon ist gut
+Ihr seid vernetzt und wartet jetzt auf meinen Newsletter
+Sonny Black und Frank White, welche deutsche Crew ist besser?
+[Hook: Billy 13]
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Dass keiner von euch Kindern rappen kann
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Das keiner von euch rappen kann
+[Interlude/Sample]
+„Vorwärts, leg dich mit der Fresse auf den Bordstein“
+[Part 2: Bushido]
+Wer ist der Hustler 1?Du willst sein wie Busta Rhymes
+Ich fress Anabolika und pumpe nachts im Knast allein
+Ich bin der mit dem sich alle identifizieren
+Du kannst A: alleine kommen oder B: ein Ziel verlieren
+Ich rappe für Außenseiter, komm ich fick dich draußen weiter
+Schreibe über KangaROOS und kauf dir davon tausendKleider
+Sag mir ich passe nicht, pass auf ich hasse dich
+Ich weiß du kannst es nicht und dass der Punch dich trifft
+Weil ich nicht brav bin kommt keiner auf den Pausenhof
+Heul dir deine Augen rot ich hol mir jetzt dein Pausenbrot
+Geh und bunker dich, ich scheiß ein ganzes Pfund auf dich
+Erste Stunde und ich zieh die Kokaline im Unterricht
+[Hook: Billy 13]
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Dass keiner von euch Kindern rappen kann
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Das keiner von euch rappen kann
+[Part 3: Bushido]
+Hör auf Billy mach die Augen zu und sag mir dann
+Warum Mister Rebell One immer noch nicht rappen kann
+Erst war es Carlo Cokxxx jetzt ist jeder hart und flowt
+Du fickst nur mit deiner Freundin warum ist dein Arsch so rot
+Deine Mutter sagt ich wär ein wenig feindselig
+Ihr habt nix zu tun dann kommt und hängt euch jetzt an meinen Penis
+Du bist ein Draufgänger
+Raus aus meinem Haus, Penner
+Rap bringt dir kein Geld und du Schwuchtel fickst jetzt auch Männer?
+Wer hält das Mic fest und boxt dich an der Wand lang?
+Schreib über dein Dorf denn du Kecko hast keine Pumpgun
+Rapp wie du bist
+Ich bin der der im stehen pisst
+Zuviel Testosteron hat und dich mit Haut und Haaren frisst
+[Hook: Billy 13]
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Dass keiner von euch Kindern rappen kann
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Das keiner von euch rappen kann
+[Bridge: Billy 13]
+Keiner hat es drauf
+So wie er auch
+Wenn ihr böse guckt und wenn ihr Schwuchteln klaut
+Tempelhof
+Alle Hände hoch
+Keiner kann schreiben
+Ihr müsst ihn biten
+Mach dein Solo hart
+Geht jetzt nach Haus und weint
+Tempelhof
+Alle Hände hoch
+[Hook: Billy 13]
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Dass keiner von euch Kindern rappen kann
+Bushido
+Schrei seinen Namen laut und denk daran
+Bushido
+Das keiner von euch rappen kann
+[Outro: Billy 13]
+Bushido
+Bushido
+Bushido
+Bushido</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,8 +655,56 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Songtext zu „Bei Nacht“][Part 1]Du machst nichts, was ich nicht schon gestern gut gemacht habDu willst rappen und brichst dir dabei den Schwanz abIch mach jetzt mein Solo hart, schreib den Text im Polo-ShirtIch mach die Kohle, keiner von euch Homos ist was wertJeder meiner Fans scheißt darauf wie du am Mic rappstKomm nach Schöneberg und zeig mir deinen scheiß TextMeine Stadt hat kein Platz, ich mach aus deinem Team eine BitchIch schreibe einen Satz und töte damit ihn und dichEgal wieviel du rappst, ab heute bin ich ChefSag den Leuten du kennst mich und geh morgen zum SingletreffWarum redet jeder Spast seit Wochen nur von mir?Ich komm auf die Bühne und auf einmal schreien alle: Yeah!Jeder meiner Tracks ist für meinen StadtbezirkGib mir einen Takt und ich zeig dir wie man zum Schatten wirdDu willst alles ausprobieren? Dann komm in meinen HoodHier kannst du den Bordstein fressen, ich mach dich Spast kaputt[Hook]Wer ist so fit wie ich? Wer ist mein Feind?Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintDu kannst schreien so laut du kannst, du gehst knock outDu bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!Wer ist so fit wie ich? Wer ist mein Feind?Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintDu kannst schreien so laut du kannst, du gehst knock outDu bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!
-[Part 2]Ich guck dich an und reduziere dich auf MillimeterGestern war ich nett, doch heute heißt es: Wir sind GegnerEs ist viel zu ernst als das du noch mit mir abhängstDu quatschst mich voll, weil du Schwuchtel jetzt einen Star kennstIch bin pervers und vögel Nutten aus den PopbandsDein größter Traum ist, dass du mit mir cool am Block dancestHier gibt es kein Picknick, du chillst, ich fick dichDu behauptest Rap soll man nicht ernst nehmen, du Kind bistOut und naiv, mein Name glänzt am HorizontSag deiner Mama, dass Bushido morgen wieder kommtIch beiss mich fest, du Opfer, ich lass nicht mehr losWelcher Kanake zahlt Eintritt für deine Billigshows?Cordon Sport, du schreibst viel ich brauch ein WortIch bin Berliner, 48, und ich scheiß auf TorchRap heißt: Ring frei, lauf weg und bring dreiIch hab für jeden von euch Platz, ihr seid Toy, yeah![Hook]Wer ist so fit wie ich? Wer ist mein Feind?Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintDu kannst schreien so laut du kannst, du gehst knock outDu bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!Wer ist so fit wie ich? Wer ist mein Feind?Ich bin der, der dich fickt wenn die Sonne nicht mehr scheintDu kannst schreien so laut du kannst, du gehst knock outDu bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!</t>
+          <t>[Songtext zu „Bei Nacht“]
+[Part 1]
+Du machst nichts, was ich nicht schon gestern gut gemacht hab
+Du willst rappen und brichst dir dabei den Schwanz ab
+Ich mach jetzt mein Solo hart, schreib den Text im Polo-Shirt
+Ich mach die Kohle, keiner von euch Homos ist was wert
+Jeder meiner Fans scheißt darauf wie du am Mic rappst
+Komm nach Schöneberg und zeig mir deinen scheiß Text
+Meine Stadt hat kein Platz, ich mach aus deinem Team eine Bitch
+Ich schreibe einen Satz und töte damit ihn und dich
+Egal wieviel du rappst, ab heute bin ich Chef
+Sag den Leuten du kennst mich und geh morgen zum Singletreff
+Warum redet jeder Spast seit Wochen nur von mir?
+Ich komm auf die Bühne und auf einmal schreien alle: Yeah!
+Jeder meiner Tracks ist für meinen Stadtbezirk
+Gib mir einen Takt und ich zeig dir wie man zum Schatten wird
+Du willst alles ausprobieren? Dann komm in meinen Hood
+Hier kannst du den Bordstein fressen, ich mach dich Spast kaputt
+[Hook]
+Wer ist so fit wie ich? Wer ist mein Feind?
+Ich bin der, der dich fickt wenn die Sonne nicht mehr scheint
+Du kannst schreien so laut du kannst, du gehst knock out
+Du bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!
+Wer ist so fit wie ich? Wer ist mein Feind?
+Ich bin der, der dich fickt wenn die Sonne nicht mehr scheint
+Du kannst schreien so laut du kannst, du gehst knock out
+Du bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!
+[Part 2]
+Ich guck dich an und reduziere dich auf Millimeter
+Gestern war ich nett, doch heute heißt es: Wir sind Gegner
+Es ist viel zu ernst als das du noch mit mir abhängst
+Du quatschst mich voll, weil du Schwuchtel jetzt einen Star kennst
+Ich bin pervers und vögel Nutten aus den PopbandsDein größter Traum ist, dass du mit mir cool am Block dancestHier gibt es kein Picknick, du chillst, ich fick dich
+Du behauptest Rap soll man nicht ernst nehmen, du Kind bist
+Out und naiv, mein Name glänzt am Horizont
+Sag deiner Mama, dass Bushido morgen wieder kommt
+Ich beiss mich fest, du Opfer, ich lass nicht mehr los
+Welcher Kanake zahlt Eintritt für deine Billigshows?
+Cordon Sport, du schreibst viel ich brauch ein Wort
+Ich bin Berliner, 48, und ich scheiß auf TorchRap heißt: Ring frei, lauf weg und bring drei
+Ich hab für jeden von euch Platz, ihr seid Toy, yeah!
+[Hook]
+Wer ist so fit wie ich? Wer ist mein Feind?
+Ich bin der, der dich fickt wenn die Sonne nicht mehr scheint
+Du kannst schreien so laut du kannst, du gehst knock out
+Du bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!
+Wer ist so fit wie ich? Wer ist mein Feind?
+Ich bin der, der dich fickt wenn die Sonne nicht mehr scheint
+Du kannst schreien so laut du kannst, du gehst knock out
+Du bleibst doch nur 'ne Frau mit Schwanz, die sich nichts traut, yeah!</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -574,9 +758,68 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Intro/Anrufbeantworter]„Bushido on dit quoi? Ici c'est le tyran de ParisJe viens d'écouter tes nouveau sons et ils déchirentGravent cousin. Faut enchainer comme ça le succès suiveraInch'Allah, squad force représente“[Part 1]Vollkontakt, wer hat Angst, guck mich an, ich bin draufKreuz die Finger für ein W, was ist jetzt, du bist outGeh, erlebe meine Stadt, friss den Bordstein du KeckFick auf deinen scheiss Rap, für deinen neuen scheiss TrackIch zerfleisch dich, einfach weil du toy bistSchreib aus deinem Leben und sieh ein, keiner freut sichRuft mich an, lasst euch alle Titten wachsenSagt mein Style liegt im Trend, doch ich fick nich mit euch SpastenEs ist Benz Klasse S, scheiss auf dein Geschäft, es ist Aggro WestDeutscher Rap hat jetzt PechAmphetamin, es gibt nur ein BerlinNeben mir sieht alles whack aus, weil keiner auf den Dreck bouncedBorn to Kill, du machst alles chillWenn ich rappe, weiß ich ganz genau, deine Stadt steht stillIch bin elitär und auf keinen Fall dein KumpelBerlin wird wieder hart, denn wir verkloppen jede Schwuchtel[Hook]Berlin! Es ist meine Stadt, mein BezirkDu Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du OpferBerlin! Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt GhettoBerlin! Es ist meine Stadt, mein BezirkDu Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du OpferBerlin! Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt Ghetto
-[Bridge]Geh wohin du herkommst, mach dass du nicht wieder kommstTempelhof, Schöneberg, der, der deine Lieder bumst[Part 2: Bushido]Meine Stadt ist der Panzer auf dem FeldDu kannst reden wie du willst, denn ich ficke deine WeltDie Party ist vorbei, Deutschland hat wieder ne GrenzeEs ist ganz normal, Männer lutschen keine SchwänzeRap macht keine Freunde, Rap ist auch nicht kunterbuntBring mir deine Gang und ich fick euch in den MuttermundIhr seid behindert, ich mach das alles gut istIch bin der, der Nachts kommt und euer Blut frisstDu willst wissen, wie Berlin bei Tag istOb es hart ist, wenn sich Yayo in deine Nase frisstWarum kriecht ihr mir so tief in meinen ArschWarum denken alle Wessis Berlinrap ist nur SpaßEs ist mein Business, wer ist hart und fickt michGlaubst du an den Scheiss, den du rappst, geh verpiss dich![Hook]Berlin! Es ist meine Stadt, mein BezirkDu Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du OpferBerlin! Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt GhettoBerlin! Es ist meine Stadt, mein BezirkDu Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du OpferBerlin! Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt Ghetto
-[Outro: Bushido &amp; Scratches]Berlin!„'cross the caves of Berlin“Berlin!„Berlin“„Berlin“Berlin!„Berlin“„Berlin“Berlin!„Berlin“Berlin!</t>
+          <t>[Intro/Anrufbeantworter]
+„Bushido on dit quoi? Ici c'est le tyran de ParisJe viens d'écouter tes nouveau sons et ils déchirentGravent cousin. Faut enchainer comme ça le succès suivera
+Inch'Allah, squad force représente“
+[Part 1]
+Vollkontakt, wer hat Angst, guck mich an, ich bin drauf
+Kreuz die Finger für ein W, was ist jetzt, du bist out
+Geh, erlebe meine Stadt, friss den Bordstein du Keck
+Fick auf deinen scheiss Rap, für deinen neuen scheiss Track
+Ich zerfleisch dich, einfach weil du toy bist
+Schreib aus deinem Leben und sieh ein, keiner freut sich
+Ruft mich an, lasst euch alle Titten wachsen
+Sagt mein Style liegt im Trend, doch ich fick nich mit euch Spasten
+Es ist Benz Klasse S, scheiss auf dein Geschäft,es ist Aggro West
+Deutscher Rap hat jetzt Pech
+Amphetamin, es gibt nur ein Berlin
+Neben mir sieht alles whack aus, weil keiner auf den Dreck bounced
+Born to Kill, du machst alles chill
+Wenn ich rappe, weiß ich ganz genau, deine Stadt steht still
+Ich bin elitär und auf keinen Fall dein Kumpel
+Berlin wird wieder hart, denn wir verkloppen jede Schwuchtel
+[Hook]
+Berlin! Es ist meine Stadt, mein Bezirk
+Du Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du Opfer
+Berlin!Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt Ghetto
+Berlin! Es ist meine Stadt, mein Bezirk
+Du Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du Opfer
+Berlin!Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt Ghetto
+[Bridge]
+Geh wohin du herkommst, mach dass du nicht wieder kommst
+Tempelhof, Schöneberg, der, der deine Lieder bumst
+[Part 2: Bushido]
+Meine Stadt ist der Panzer auf dem Feld
+Du kannst reden wie du willst, denn ich ficke deine Welt
+Die Party ist vorbei, Deutschland hat wieder ne Grenze
+Es ist ganz normal, Männer lutschen keine Schwänze
+Rap macht keine Freunde, Rap ist auch nicht kunterbunt
+Bring mir deine Gang und ich fick euch in den Muttermund
+Ihr seid behindert, ich mach das alles gut ist
+Ich bin der, der Nachts kommt und euer Blut frisst
+Du willst wissen, wie Berlin bei Tag ist
+Ob es hart ist, wenn sich Yayo in deine Nase frisst
+Warum kriecht ihr mir so tief in meinen Arsch
+Warum denken alle Wessis Berlinrap ist nur Spaß
+Es ist mein Business, wer ist hart und fickt mich
+Glaubst du an den Scheiss, den du rappst, geh verpiss dich!
+[Hook]
+Berlin! Es ist meine Stadt, mein Bezirk
+Du Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du Opfer
+Berlin! Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt Ghetto
+Berlin! Es ist meine Stadt, mein Bezirk
+Du Nutte kannst nach Hause gehn, ab jetzt ist es Hardcore du Opfer
+Berlin! Es ist meine Stadt, für euch gibts keine PartyHier darf keiner tanzen, meine Stadt ist jetzt Ghetto
+[Outro: Bushido &amp; Scratches]
+Berlin!
+„'cross the caves of Berlin“
+Berlin!
+„Berlin“„Berlin“
+Berlin!
+„Berlin“„Berlin“
+Berlin!
+„Berlin“
+Berlin!</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -630,9 +873,73 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Intro/Sample]„Reality Rap, the only song I sing“„Reality Rap, the only song I sing“[Part 1: Fler]Die Leute schrei'n meinen Namen, jetzt is Showtime für michGerade noch ein Niemand und auf einmal Fame im RampenlichtMein Traum wird war und der bringt Geld der ganze Glimmer überall, yeahDu liest die Zeitung und siehst mein Gesicht auf Seite dreiDie Straße lebt in mir, mein Herz pumpt Blut und km/hEgal, ob heute Superstar, ich denk daran was gestern warIch hab den selben Stress, die selben Leute, die mich hassenJedes mal das selbe, ich komm an und greif in deine Kasse, owDu Zigeuner, das Ghetto hat kein Platz für dichKlau dir die Beats zusammen, egal, du weist ich kack auf dichIch spann die Muskeln an ihr Keckos habt jetzt Angst von mirRuf deine Kumpel an...[Part 2: Bushido]...doch trotzdem bleibt der Gangster hierIch mach ein Track, und ändern wird sich nichtsIch steh draußen auf der Straße und es ist der selbe ShitJedes mal der selbe Stress, er macht mich steinhartWozu soll ich jetzt noch nett sein, ich hol mir dein Arsch, dennPlötzlich ist jede Nutte interessiert an mir (whow)Ihr quatscht mich voll, wie cool ich bin, doch nichts passiertWas denkst du dir, denkst du Rap ist wie ein BootTicket kaufen, einsteigen und wir fahren los?Ich erzähl dir Sachen, die du siehst in deinen TräumenIhr kommt zu mir nach unten und hängt morgen an den BäumenIhr könnt lauter schreien, doch ich bin der mit dem harten SchwanzIch mach jetzt ernst und bring Rap wieder ins Vaterland
-[Hook/Samples]„Aa aa aaha aaaaa ahh“„Aa aa aaha aaaaa ahh“„Aa aa aaha aaaaa ahh“„Aa aa aaha-“„Reality Rap, the only song I sing“[Part 3: Bushido]Du bist kein Ruffneck, du rappst nicht hart, KeckSag mir, wie es schmeckt, wenn du Schwanz mir am Arsch leckstIch sag deine scheiss Gang ist jetzt komplett rausIch programmiere meine Drums und der Track bounct, yeahDu hast ein Image? Zeigs mir, ich fick esIch esse rohes Fleisch und mach aus deinen Freunden BitchesJeder der kommt, wird von mir nach Haus geschicktIch kann erst aufhören zu schießen, wenn die Knarre nicht mehr klicktKlick, klick und die Nutten springen von der BridgeIch bin Nummer eins für alle und mein Label macht mich richMein Echo dröhnt vom Bordstein bis zur SkylineIch häng draußen ab...[Part 4: Fler]...wer von euch will mein Feind sein?Ich bin auf Tour und bock jede Stadt mit meiner CrewKomm ich nach Hause, quatscht mich jeder voll, genau wie duUnd du, wer will zuerst? Ich burne dich mit einem VersIch muss es machen, weil der Shit für euch zu schwer istErst seid ihr krass, dann schreit ihr Peace manIhr könnt rappen wie am Fließband doch ich bleib der King im Kiez, PunkIch mach mein eigenes Ding, keiner steigt in meinen RingIhr seid keine Rapper, sondern kleine Kids die heimlich singenWas könnt ihr sagen, mein Rap ist hart wie TitanBushido bounct den Beat und den Mix macht DJ IlanIch schreib mein Hass auf, warte nicht und lass es rausDu willst mit mir reden, doch die Antwort ist die Faust
-[Hook/Samples]„Aa aa aaha aaaaa ahh“„Reality Rap, the only song I sing“„-aaaaa ahh“„Aa aa aaha aaaaa ahh“„Reality Rap, the only song I sing“„-aaaaa ahh“„Aa aa aaha aaaaa ahh“„Reality Rap, the only song I sing“„Reality Rap, the only song I sing“</t>
+          <t>[Intro/Sample]
+„Reality Rap, the only song I sing“„Reality Rap, the only song I sing“
+[Part 1: Fler]
+Die Leute schrei'n meinen Namen, jetzt is Showtime für michGerade noch ein Niemand und auf einmal Fame im RampenlichtMein Traum wird war und der bringt Geld der ganze Glimmer überall, yeah
+Du liest die Zeitung und siehst mein Gesicht auf Seite drei
+Die Straße lebt in mir, mein Herz pumpt Blut und km/hEgal, ob heute Superstar, ich denk daran was gestern war
+Ich hab den selben Stress, die selben Leute, die mich hassen
+Jedes mal das selbe, ich komm an und greif in deine Kasse, ow
+Du Zigeuner, das Ghetto hat kein Platz für dich
+Klau dir die Beats zusammen, egal, du weist ich kack auf dich
+Ich spann die Muskeln an ihr Keckos habt jetzt Angst von mir
+Ruf deine Kumpel an...
+[Part 2: Bushido]
+...doch trotzdem bleibt der Gangster hier
+Ich mach ein Track, und ändern wird sich nichts
+Ich steh draußen auf der Straße und es ist der selbe Shit
+Jedes mal der selbe Stress, er macht mich steinhart
+Wozu soll ich jetzt noch nett sein, ich hol mir dein Arsch, denn
+Plötzlich ist jede Nutte interessiert an mir (whow)
+Ihr quatscht mich voll, wie cool ich bin, doch nichts passiertWas denkst du dir, denkst du Rap ist wie ein BootTicket kaufen, einsteigen und wir fahren los?
+Ich erzähl dir Sachen, die du siehst in deinen Träumen
+Ihr kommt zu mir nach unten und hängt morgen an den Bäumen
+Ihr könnt lauter schreien, doch ich bin der mit dem harten Schwanz
+Ich mach jetzt ernst und bring Rap wieder ins Vaterland
+[Hook/Samples]
+„Aa aa aaha aaaaa ahh“
+„Aa aa aaha aaaaa ahh“
+„Aa aa aaha aaaaa ahh“
+„Aa aa aaha-“
+„Reality Rap, the only song I sing“
+[Part 3: Bushido]
+Du bist kein Ruffneck, du rappst nicht hart, Keck
+Sag mir, wie es schmeckt, wenn du Schwanz mir am Arsch leckst
+Ich sag deine scheiss Gang ist jetzt komplett raus
+Ich programmiere meine Drums und der Track bounct, yeah
+Du hast ein Image? Zeigs mir, ich fick es
+Ich esse rohes Fleisch und mach aus deinen Freunden Bitches
+Jeder der kommt, wird von mir nach Haus geschickt
+Ich kann erst aufhören zu schießen, wenn die Knarre nicht mehr klickt
+Klick, klick und die Nutten springen von der Bridge
+Ich bin Nummer eins für alle und mein Label macht mich rich
+Mein Echo dröhnt vom Bordstein bis zur Skyline
+Ich häng draußen ab...
+[Part 4: Fler]
+...wer von euch will mein Feind sein?
+Ich bin auf Tour und bock jede Stadt mit meiner Crew
+Komm ich nach Hause, quatscht mich jeder voll, genau wie du
+Und du, wer will zuerst? Ich burne dich mit einem Vers
+Ich muss es machen, weil der Shit für euch zu schwer ist
+Erst seid ihr krass, dann schreit ihr Peace man
+Ihr könnt rappen wie am Fließband doch ich bleib der King im Kiez, Punk
+Ich mach mein eigenes Ding, keiner steigt in meinen Ring
+Ihr seid keine Rapper, sondern kleine Kids die heimlich singen
+Was könnt ihr sagen, mein Rap ist hart wie Titan
+Bushido bounct den Beat und den Mix macht DJ Ilan
+Ich schreib mein Hass auf, warte nicht und lass es raus
+Du willst mit mir reden, doch die Antwort ist die Faust
+[Hook/Samples]
+„Aa aa aaha aaaaa ahh“
+„Reality Rap, the only song I sing“
+„-aaaaa ahh“
+„Aa aa aaha aaaaa ahh“
+„Reality Rap, the only song I sing“
+„-aaaaa ahh“
+„Aa aa aaha aaaaa ahh“
+„Reality Rap, the only song I sing“
+„Reality Rap, the only song I sing“</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -686,9 +993,88 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Intro: Bushido und Dealer]„Hallo.“„Ja, ich bins."„Ey man, was, was los alter?"„Was ist los... äh... ich hab das jetzt klargemacht, so, kommst du um 6 oder was?“„Wie spät ist es?“„Vier.“„Zwei Stunden oder was?“„Ja, auf jeden.“„Ey, aber nicht so wie gestern, Alter, ich bin pünktlich auf jeden Fall. Ok?“„Ok, ok.“„Bis dann.“„Okay gut, tschau!“[Part 1]Jetzt ist wieder Zeit fürs Geschäft, ich lauf die Straße hoch zum BlockIch hab heute kein Bock zu rappen und Kopfschmerzen vom SmogNoch nichts gegessen und den Kragen hoch, weils doch schon kalt istLaufen fällt schwer, wenn der Wind weht und du alt wirstIch guck zum Horizont und sehe meine SkylineHeute ist mein Tag und kein anderer wird mit dabei seinIch bin relaxt, in zwei Stunden mach ich den DealNach drei Lines Koks mach ich mich auf zu meinem ZielIch bin drauf und meine Hände fang' an zu schwitzenDie U-Bahn ist voller Leute, ich kann nicht mehr still sitzenIch muss rausJetzt sind es vielleicht noch hundert MeterIch kann jetzt nicht mehr zurück, die vierte Line leg ich mir späterIch steh unten vor der Tür, mein Finger liegt auf der KlingelDas Blut rauscht mit im Ohr, der Blick geht hoch zum HimmelDie Tür geht auf, mit einem Fuß steh ich im HausDen Zahnstocher im Mund lauf ich langsam die Treppe raufIch bin viel zu drauf, mein ganzer Nasenraum ist taubIch hör mir selber noch sagen: „Beim letzten Raub jetzt hör ich auf“Drauf geschissen, ich brauchs, noch dreizehn Stufen bis nach obenGleich tausch ich meine Patrone gegen Geld und seine Drogen
-[Hook]Denn eine Kugel reicht, damit du weißt, wie hart Beton istKomm vom Fenster weg, weil es hier draußen nichts um sonst gibtBist du schneller als der Abzug, bevor ich ihn drücke?Du kannst rennen, doch du weißt, dass ich dich finde und fickeDenn eine Kugel reicht, damit du weißt, wie hart Beton istKomm vom Fenster weg, weil es hier draußen nichts um sonst gibtBist du schneller als der Abzug, bevor ich ihn drücke?Du kannst rennen, doch du weißt, dass ich dich finde und ficke[Part 2]Ich setzt mich auf die Couch und sag: „Du hast 'nen guten Geschmack“Ich lächel, doch ich denk mir: „Heute bist du fällig du Spast“Er macht die Playstation an, also nehm ich mir das PadWir spielen Tekken, ich guck nicht hin und box in trotzdem wegEr macht den Fernseher aus, wir gehen rüber zum TischLangsam wirds spannend, ich krieg ein Zucken in meinem GesichtBevor er fragt, was ich will, legt er uns erstmal 'ne LineIch guck nach unten und denk' mir: „Scheiße, wie drauf kann man sein?“Egal, ich sag jetzt nicht „nein“, Augen zu und weg damitEr guckt mich an und fragt mich endlich, wie viel Koka ich krieg„Gib mir so viel wie du hast“, was ihm bestimmt nicht gefällt„Gib mir alle deine Trips, die Pillen und bitte dein Geld!“Er denkt, ich will ihn verarschen, und lächelt schwul vor sich hinIch zieh die Knarre und schlag auf ihn ein, so drauf wie ich binMir ist egal, wer er ist, mir ist egal was passiertDie Straße macht, dass man heute gewinnt und morgen verliertJeder macht das, was er mussMan geht und kommt nicht zurückEr hat getan, was er wollte und hatte heute kein GlückDenn eine Kugel reicht...
-[Hook]Denn eine Kugel reicht, damit du weißt, wie hart Beton istKomm vom Fenster weg, weil es hier draußen nichts um sonst gibtBist du schneller als der Abzug, bevor ich ihn drücke?Du kannst rennen, doch du weißt, dass ich dich finde und fickeDenn eine Kugel reicht, damit du weißt, wie hart Beton istKomm vom Fenster weg, weil es hier draußen nichts um sonst gibtBist du schneller als der Abzug, bevor ich ihn drücke?Du kannst rennen, doch du weißt, dass ich dich finde und ficke[Bridge]Es wird sich zeigen, wer von uns beiden am Ende stehen bleibtDu willst besser als ich rappen, geh und kauf dir zehn MicsDu hast nicht ein Reim, du Spast bist jetzt mein FeindDu hast nichts, weil Mr. Cordon mit keinem von euch teiltEs wird sich zeigen, wer von uns beiden am Ende stehen bleibtDu willst besser als ich rappen, geh und kauf dir zehn MicsDu hast nicht ein Reim, du Spast bist jetzt mein FeindDu hast nichts, weil Mr. Cordon mit keinem von euch teilt[Hook]Denn eine Kugel reicht, damit du weißt, wie hart Beton istKomm vom Fenster weg, weil es hier draußen nichts um sonst gibtBist du schneller als der Abzug, bevor ich ihn drücke?Du kannst rennen, doch du weißt, dass ich dich finde und fickeDenn eine Kugel reicht, damit du weißt, wie hart Beton istKomm vom Fenster weg, weil es hier draußen nichts um sonst gibtBist du schneller als der Abzug, bevor ich ihn drücke?Du kannst rennen, doch du weißt, dass ich dich finde und ficke</t>
+          <t>[Intro: Bushido und Dealer]
+„Hallo.“
+„Ja, ich bins."
+„Ey man, was, was los alter?"
+„Was ist los... äh... ich hab das jetzt klargemacht, so, kommst du um 6 oder was?“
+„Wie spät ist es?“
+„Vier.“
+„Zwei Stunden oder was?“
+„Ja, auf jeden.“
+„Ey, aber nicht so wie gestern, Alter, ich bin pünktlich auf jeden Fall. Ok?“
+„Ok, ok.“
+„Bis dann.“
+„Okay gut, tschau!“
+[Part 1]
+Jetzt ist wieder Zeit fürs Geschäft, ich lauf die Straße hoch zum Block
+Ich hab heute kein Bock zu rappen und Kopfschmerzen vom Smog
+Noch nichts gegessen und den Kragen hoch, weils doch schon kalt ist
+Laufen fällt schwer, wenn der Wind weht und du alt wirst
+Ich guck zum Horizont und sehe meine Skyline
+Heute ist mein Tag und kein anderer wird mit dabei sein
+Ich bin relaxt, in zwei Stunden mach ich den Deal
+Nach drei Lines Koks mach ich mich auf zu meinem ZielIch bin drauf und meine Hände fang' an zu schwitzenDie U-Bahn ist voller Leute, ich kann nicht mehr still sitzenIch muss raus
+Jetzt sind es vielleicht noch hundert Meter
+Ich kann jetzt nicht mehr zurück, die vierte Line leg ich mir später
+Ich steh unten vor der Tür, mein Finger liegt auf der Klingel
+Das Blut rauscht mit im Ohr, der Blick geht hoch zum Himmel
+Die Tür geht auf, mit einem Fuß steh ich im Haus
+Den Zahnstocher im Mund lauf ich langsam die Treppe rauf
+Ich bin viel zu drauf, mein ganzer Nasenraum ist taub
+Ich hör mir selber noch sagen: „Beim letzten Raub jetzt hör ich auf“
+Drauf geschissen, ich brauchs, noch dreizehn Stufen bis nach oben
+Gleich tausch ich meine Patrone gegen Geld und seine Drogen
+[Hook]
+Denn eine Kugel reicht, damit du weißt, wie hart Beton ist
+Komm vom Fenster weg, weil es hier draußen nichts um sonst gibt
+Bist du schneller als der Abzug, bevor ich ihn drücke?
+Du kannst rennen, doch du weißt, dass ich dich finde und ficke
+Denn eine Kugel reicht, damit du weißt, wie hart Beton ist
+Komm vom Fenster weg, weil es hier draußen nichts um sonst gibt
+Bist du schneller als der Abzug, bevor ich ihn drücke?
+Du kannst rennen, doch du weißt, dass ich dich finde und ficke
+[Part 2]
+Ich setzt mich auf die Couch und sag: „Du hast 'nen guten Geschmack“Ich lächel, doch ich denk mir: „Heute bist du fällig du Spast“
+Er macht die Playstation an, also nehm ich mir das Pad
+Wir spielen Tekken, ich guck nicht hin und box in trotzdem weg
+Er macht den Fernseher aus, wir gehen rüber zum Tisch
+Langsam wirds spannend, ich krieg ein Zucken in meinem Gesicht
+Bevor er fragt, was ich will, legt er uns erstmal 'ne LineIch guck nach unten und denk' mir: „Scheiße, wie drauf kann man sein?“Egal, ich sag jetzt nicht „nein“, Augen zu und weg damit
+Er guckt mich an und fragt mich endlich, wie viel Koka ich krieg
+„Gib mir so viel wie du hast“, was ihm bestimmt nicht gefällt
+„Gib mir alle deine Trips, die Pillen und bitte dein Geld!“
+Er denkt, ich will ihn verarschen, und lächelt schwul vor sich hin
+Ich zieh die Knarre und schlag auf ihn ein, so drauf wie ich bin
+Mir ist egal, wer er ist, mir ist egal was passiertDie Straße macht, dass man heute gewinnt und morgen verliertJeder macht das, was er mussMan geht und kommt nicht zurückEr hat getan, was er wollte und hatte heute kein Glück
+Denn eine Kugel reicht...
+[Hook]
+Denn eine Kugel reicht, damit du weißt, wie hart Beton ist
+Komm vom Fenster weg, weil es hier draußen nichts um sonst gibt
+Bist du schneller als der Abzug, bevor ich ihn drücke?
+Du kannst rennen, doch du weißt, dass ich dich finde und ficke
+Denn eine Kugel reicht, damit du weißt, wie hart Beton ist
+Komm vom Fenster weg, weil es hier draußen nichts um sonst gibt
+Bist du schneller als der Abzug, bevor ich ihn drücke?
+Du kannst rennen, doch du weißt, dass ich dich finde und ficke
+[Bridge]
+Es wird sich zeigen, wer von uns beiden am Ende stehen bleibt
+Du willst besser als ich rappen, geh und kauf dir zehn Mics
+Du hast nicht ein Reim, du Spast bist jetzt mein Feind
+Du hast nichts, weil Mr. Cordon mit keinem von euch teilt
+Es wird sich zeigen, wer von uns beiden am Ende stehen bleibt
+Du willst besser als ich rappen, geh und kauf dir zehn Mics
+Du hast nicht ein Reim, du Spast bist jetzt mein Feind
+Du hast nichts, weil Mr. Cordon mit keinem von euch teilt
+[Hook]
+Denn eine Kugel reicht, damit du weißt, wie hart Beton ist
+Komm vom Fenster weg, weil es hier draußen nichts um sonst gibt
+Bist du schneller als der Abzug, bevor ich ihn drücke?
+Du kannst rennen, doch du weißt, dass ich dich finde und ficke
+Denn eine Kugel reicht, damit du weißt, wie hart Beton ist
+Komm vom Fenster weg, weil es hier draußen nichts um sonst gibt
+Bist du schneller als der Abzug, bevor ich ihn drücke?
+Du kannst rennen, doch du weißt, dass ich dich finde und ficke</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -791,10 +1177,88 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Hook: Bushido &amp; Fler]Ich komm im 7er BMW, S8 als CoupéIch geb Gas durch die StadtDie roten Ampeln kein ProblemIch komm an am Club, steig aus steh im HoodLauf gleich durch die TürUnd weiß, dass jeder guckt, der King steht im Dance-FloorMich sehen die Fans yoaJetzt bounct die Party, denn ich setzt die Trends, yoaWelche Frau tanzt mit dir? Jede Frau tanzt mit mir!Wo bist du zu Haus? Der Club ist mein Revier![Part 1: Fler]Ich bin drauf und tanz die ganze Nacht hab schon 100 geile Frauen gesehenTrink so viel ich kann auf Ex und kann deshalb jetzt kaum noch gehenDoch kein Problem ich mach weiter so gut ich kannEs tut mir Leid, aber leider bist du nicht dranIch tanz mit dir, dann mit der, dann der ganze RestKomm zu mir, komm zu Fler, und ich zeigs dir jetztDie Party rockt volles Haus der Beat läuft ab MitternachtAlle Frauen ziehen sich aus und tanzen splitternacktIch komm vom Dancefloor und geh gleich zur Bar rüberSag dem Barkeeper ich komm gleich noch mal wiederIm Ghetto kennt mich jeder, ElektrofensterheberIch fahr den dicksten Wagen, blaumetallic, schwarzes LederWer will mit mir fahren im Auto ist noch Platz für 10F. L. E. R. der Rest kann nach Hause gehenDu wirst schon sehen ich mach Jede klar egal was gehtKomm mit nach draußen und ich zeig dir wo mein Auto steht
-[Hook: Bushido &amp; Fler]Ich komm im 7er BMW, S8 als CoupéIch geb Gas durch die StadtDie roten Ampeln kein ProblemIch komm an am Club, steig aus steh im HoodLauf gleich durch die TürUnd weiß, dass jeder guckt, der King steht im Dance-FloorMich sehen die Fans yoaJetzt bounct die Party, denn ich setzt die Trends, yoaWelche Frau tanzt mit dir? Jede Frau tanzt mit mir!Wo bist du zu Haus? Der Club ist mein Revier![Part 2: Bushido]Oh, Shit! Ich sehe mich im Spiegel ich bin so schickSonny kommt ins Discolight (Bling!)Frisch rasiert, gestylt heut Nacht ist PartynightIhr seht mich kommen, kommt zeigt mir jetzt wie laut ihr schreit (yeah!)Ich weiß genau, dass du merkst wie gut ich riechDeine Lippen zeigen mir du willst 'n Sex on the Beach, MädchenIch sags dir gern du siehst heut am besten ausEs wird heiß hier drin, also ziehst du dich am besten aus (Church!)Es ist verrückt jeder schenkt dir seinen BlickIch will alles oder nichts, ich krieg alles und auch dich dennEs ist Samstag ich bin wieder ganz hartDeine Augen rufen mich damit ich nach nem Tanz frag (Bling!)Kein Problem ich lass dich nicht alleine stehenWünsch dir jetzt noch einen Track dann können wir endlich beide gehen (Oh!)Im Club hört man den Beat, alles ist jetzt mein GebietSonny Black back am Block, Mission complete
-[Hook: Bushido &amp; Fler]Ich komm im 7er BMW, S8 als CoupéIch geb Gas durch die StadtDie roten Ampeln kein ProblemIch komm an am Club, steig aus steh im HoodLauf gleich durch die TürUnd weiß, dass jeder guckt, der King steht im Dance-FloorMich sehen die Fans yoaJetzt bounct die Party, denn ich setzt die Trends, yoaWelche Frau tanzt mit dir? Jede Frau tanzt mit mir!Wo bist du zu Haus? Der Club ist mein Revier![Bridge: Bushido &amp; Fler]Keiner schiebt mehr Optik! Alle sind auf Aggro!Keiner schiebt mehr Optik! Alle sind auf Aggro!Keiner schiebt mehr Optik! Alle sind auf Aggro!Keiner schiebt mehr Optik! Alle sind auf Aggro![Hook: Bushido &amp; Fler]Ich komm im 7er BMW, S8 als CoupéIch geb Gas durch die StadtDie roten Ampeln kein ProblemIch komm an am Club, steig aus steh im HoodLauf gleich durch die TürUnd weiß, dass jeder guckt, der King steht im Dance-FloorMich sehen die Fans yoaJetzt bounct die Party, denn ich setzt die Trends, yoaWelche Frau tanzt mit dir? Jede Frau tanzt mit mir!Wo bist du zu Haus? Der Club ist mein Revier!
-[Outro]Nächste Nachricht:„Hello, uh, uh, äh, Mr. Black, Mr. Black ich muss eine ernste Wort mit Ihnen reden. Ich bin, ich war sehr empört für... vom diesen Album, was ich habe gehört von Ihnen. Das ist ein schlechter Umgang für alle, alle Kids. Äh... wissen sie... sie.. sie nehmen zu viele Drogen auf diese Album. Ähhh... warum sagen sie alle Label ist schlecht? Das ist eine schlechte Vorbild. Wir sind eine Major.. eine gute Label, gute Qualität. Äh... wie können... wie kommen sie darauf, alle Ladys und Frauen zu diskriminieren? Das darf nicht sein! Wir wollen gute Promotion machen, gute Vermarktung, ah, das geht nicht. Bitte belästigen sie uns nicht mehr, der Vertrag ist geplatzt ..Ich, ich möchte nichts mehr mit Ihnen zu tun haben. Ich habe, ich habe es satt. Wir brauchen einen English-Rapper, eine schwarzenEnglish-Rapper, und sie sind keine Dancefloor Act - Sie sind eineDeutsch-Rap-Band. Wir können das nicht gebrauchen.. Wir wollen Radio-, Fernsehen-Promotion machen. Wir würden sie groß rausbringen, aber sie machen zu viele aggressive Musik.“</t>
+          <t>[Hook: Bushido &amp; Fler]
+Ich komm im 7er BMW, S8 als Coupé
+Ich geb Gas durch die Stadt
+Die roten Ampeln kein Problem
+Ich komm an am Club, steig aus steh im Hood
+Lauf gleich durch die Tür
+Und weiß, dass jeder guckt, der King steht im Dance-Floor
+Mich sehen die Fans yoa
+Jetzt bounct die Party, denn ich setzt die Trends, yoa
+Welche Frau tanzt mit dir? Jede Frau tanzt mit mir!
+Wo bist du zu Haus? Der Club ist mein Revier!
+[Part 1: Fler]
+Ich bin drauf und tanz die ganze Nacht hab schon 100 geile Frauen gesehen
+Trink so viel ich kann auf Ex und kann deshalb jetzt kaum noch gehen
+Doch kein Problem ich mach weiter so gut ich kann
+Es tut mir Leid, aber leider bist du nicht dran
+Ich tanz mit dir, dann mit der, dann der ganze Rest
+Komm zu mir, komm zu Fler, und ich zeigs dir jetzt
+Die Party rockt volles Haus der Beat läuft ab Mitternacht
+Alle Frauen ziehen sich aus und tanzen splitternackt
+Ich komm vom Dancefloor und geh gleich zur Bar rüber
+Sag dem Barkeeper ich komm gleich noch mal wieder
+Im Ghetto kennt mich jeder, ElektrofensterheberIch fahr den dicksten Wagen, blaumetallic, schwarzes Leder
+Wer will mit mir fahren im Auto ist noch Platz für 10
+F. L. E. R. der Rest kann nach Hause gehen
+Du wirst schon sehen ich mach Jede klar egal was geht
+Komm mit nach draußen und ich zeig dir wo mein Auto steht
+[Hook: Bushido &amp; Fler]
+Ich komm im 7er BMW, S8 als Coupé
+Ich geb Gas durch die Stadt
+Die roten Ampeln kein Problem
+Ich komm an am Club, steig aus steh im Hood
+Lauf gleich durch die Tür
+Und weiß, dass jeder guckt, der King steht im Dance-Floor
+Mich sehen die Fans yoa
+Jetzt bounct die Party, denn ich setzt die Trends, yoa
+Welche Frau tanzt mit dir? Jede Frau tanzt mit mir!
+Wo bist du zu Haus? Der Club ist mein Revier!
+[Part 2: Bushido]
+Oh, Shit! Ich sehe mich im Spiegel ich bin so schick
+Sonny kommt ins Discolight (Bling!)
+Frisch rasiert, gestylt heut Nacht ist Partynight
+Ihr seht mich kommen, kommt zeigt mir jetzt wie laut ihr schreit (yeah!)
+Ich weiß genau, dass du merkst wie gut ich riech
+Deine Lippen zeigen mir du willst 'n Sex on the Beach, Mädchen
+Ich sags dir gern du siehst heut am besten aus
+Es wird heiß hier drin, also ziehst du dich am besten aus (Church!)
+Es ist verrückt jeder schenkt dir seinen Blick
+Ich will alles oder nichts, ich krieg alles und auch dich denn
+Es ist Samstag ich bin wieder ganz hart
+Deine Augen rufen mich damit ich nach nem Tanz frag (Bling!)
+Kein Problem ich lass dich nicht alleine stehen
+Wünsch dir jetzt noch einen Track dann können wir endlich beide gehen (Oh!)
+Im Club hört man den Beat, alles ist jetzt mein Gebiet
+Sonny Black back am Block, Mission complete
+[Hook: Bushido &amp; Fler]
+Ich komm im 7er BMW, S8 als Coupé
+Ich geb Gas durch die Stadt
+Die roten Ampeln kein Problem
+Ich komm an am Club, steig aus steh im Hood
+Lauf gleich durch die Tür
+Und weiß, dass jeder guckt, der King steht im Dance-Floor
+Mich sehen die Fans yoa
+Jetzt bounct die Party, denn ich setzt die Trends, yoa
+Welche Frau tanzt mit dir? Jede Frau tanzt mit mir!
+Wo bist du zu Haus? Der Club ist mein Revier!
+[Bridge: Bushido &amp; Fler]
+Keiner schiebt mehr Optik! Alle sind auf Aggro!Keiner schiebt mehr Optik! Alle sind auf Aggro!Keiner schiebt mehr Optik! Alle sind auf Aggro!Keiner schiebt mehr Optik! Alle sind auf Aggro!
+[Hook: Bushido &amp; Fler]
+Ich komm im 7er BMW, S8 als Coupé
+Ich geb Gas durch die Stadt
+Die roten Ampeln kein Problem
+Ich komm an am Club, steig aus steh im Hood
+Lauf gleich durch die Tür
+Und weiß, dass jeder guckt, der King steht im Dance-Floor
+Mich sehen die Fans yoa
+Jetzt bounct die Party, denn ich setzt die Trends, yoa
+Welche Frau tanzt mit dir? Jede Frau tanzt mit mir!
+Wo bist du zu Haus? Der Club ist mein Revier!
+[Outro]Nächste Nachricht:
+„Hello, uh, uh, äh, Mr. Black, Mr. Black ich muss eine ernste Wort mit Ihnen reden. Ich bin, ich war sehr empört für... vom diesen Album, was ich habe gehört von Ihnen. Das ist ein schlechter Umgang für alle, alle Kids. Äh... wissen sie... sie.. sie nehmen zu viele Drogen auf diese Album. Ähhh... warum sagen sie alle Label ist schlecht? Das ist eine schlechte Vorbild. Wir sind eine Major.. eine gute Label, gute Qualität. Äh... wie können... wie kommen sie darauf, alle Ladys und Frauen zu diskriminieren? Das darf nicht sein! Wir wollen gute Promotion machen, gute Vermarktung, ah, das geht nicht. Bitte belästigen sie uns nicht mehr, der Vertrag ist geplatzt ..
+Ich, ich möchte nichts mehr mit Ihnen zu tun haben. Ich habe, ich habe es satt. Wir brauchen einen English-Rapper, eine schwarzenEnglish-Rapper, und sie sind keine Dancefloor Act - Sie sind eineDeutsch-Rap-Band. Wir können das nicht gebrauchen.. Wir wollen Radio-, Fernsehen-Promotion machen. Wir würden sie groß rausbringen, aber sie machen zu viele aggressive Musik.“</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -848,9 +1312,75 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Hook: Bushido]Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns (Renn!)[Part 1: B-Tight]Ich bin Smoove, hab den GrooveFick dein Move, bist nicht CoolEs hilft dir nichts, dass du auf überwichtig tustIch bin der Mac des Rap, du bleibst wackDu bist allein und hast keinen der dich backedDein Erfolg ist zwar groß, doch dein Mädchen auf CrackJeden Tag hat sie ein neuen Schwanz, den sie lecktUm Groupies zu ficken bist du einfach zu schwulGib dein Fame, ich fick sie auch noch im SchaukelstuhlDu bist kein Star und schon gar nicht superDu bist Nummer Eins in "Deutschland sucht den Loser!"Du Schwuchtel, hör auf zu suchtenIch mache Musik bis alle wie du verpufft sind[Hook: Bushido]Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns
-[Part 2: Sido]Du hast soviel besessen! Wirst du's vermissen?Wenn wir es dir nehm', die Karriere, dein LebenIch arbeite hart doch pass auf, dass es Spaß machtNur schnell 'ne Million und dann war's dasRapper sind Müll! Alex K. ist der King!Mit dem Geld, dass ich jetzt bekomm, lern' ich zu singenDann kenn ich sie alle, alle wollen mich kennNicht ein Mensch in Deutschland ist kein FanIch ziehe mit Bro'Sis Nasen, No Angels kommen BlasenIch sing über Engel mit Ben, doch bis dahin ist es noch ein weiter Weg also...[Hook: Bushido]Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns[Part 3: Bushido]Komm wir boxen uns, bis der Asphalt brenntDu bist mir sehr egal, weil dich hier kein Arsch kenntZeig mir, deine Träume, deine kleine FreundeDie Straße ist meins, du musst hoch auf die BäumeWen in'tressiert, was dich berührtDu kannst fleissig schreiben, doch mein Viertel führtDu bist exklusiv? jetzt gibt's endlich Beef!Keiner von euch Pennern fährt mit mir im JeepDu atmest wie ich und plözlich wir dir andersDu bist ex-gesigned, geh sag „Danke“ zu PallasMein Gangsta-Rap gibt euch Assis den RestDein Label schiebt Optik vor A.i.d.S, also...
-[Hook: Bushido]Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns, also[Skit: Bushido &amp; Label-CEO]„Was ist jetzt mit dem Vertrag?“„Äh, Vertrag, äh was für eine Vertrag äh, äh, könn' wir nicht ,äh, handeln irgendwas?“„Okay, mein Angebot, die Hälfte von deiner Firma, und ich kann machen was ich will!“„Wow! Die Hälfte von meine– Scheiße, ich brauche irgendwo, ich weiß nicht, wo sind meine Bodyguards?“„Du hast keine Bodyguards mehr! Draußen abgeknallt von unseren zehn tausend Fans!“„Oh scheiße ich glaub ich muss, ich muss, ich muss...“ (*Schussgeräusche*)[Hook: Bushido]Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennstWir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns[Outro]Also Renn! (Renn!) (Renn!) (Renn!) (Renn!) (Renn!) (Renn!)</t>
+          <t>[Hook: Bushido]
+Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns (Renn!)
+[Part 1: B-Tight]
+Ich bin Smoove, hab den Groove
+Fick dein Move, bist nicht Cool
+Es hilft dir nichts, dass du auf überwichtig tust
+Ich bin der Mac des Rap, du bleibst wack
+Du bist allein und hast keinen der dich backed
+Dein Erfolg ist zwar groß, doch dein Mädchen auf Crack
+Jeden Tag hat sie ein neuen Schwanz, den sie leckt
+Um Groupies zu ficken bist du einfach zu schwulGib dein Fame, ich fick sie auch noch im Schaukelstuhl
+Du bist kein Star und schon gar nicht superDu bist Nummer Eins in "Deutschland sucht den Loser!"
+Du Schwuchtel, hör auf zu suchten
+Ich mache Musik bis alle wie du verpufft sind
+[Hook: Bushido]
+Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns
+[Part 2: Sido]
+Du hast soviel besessen! Wirst du's vermissen?
+Wenn wir es dir nehm', die Karriere, dein Leben
+Ich arbeite hart doch pass auf, dass es Spaß macht
+Nur schnell 'ne Million und dann war's das
+Rapper sind Müll! Alex K. ist der King!
+Mit dem Geld, dass ich jetzt bekomm, lern' ich zu singen
+Dann kenn ich sie alle, alle wollen mich kenn
+Nicht ein Mensch in Deutschland ist kein Fan
+Ich ziehe mit Bro'Sis Nasen, No Angels kommen Blasen
+Ich sing über Engel mit Ben, doch bis dahin ist es noch ein weiter Weg also...
+[Hook: Bushido]
+Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns
+[Part 3: Bushido]
+Komm wir boxen uns, bis der Asphalt brennt
+Du bist mir sehr egal, weil dich hier kein Arsch kennt
+Zeig mir, deine Träume, deine kleine Freunde
+Die Straße ist meins, du musst hoch auf die Bäume
+Wen in'tressiert, was dich berührt
+Du kannst fleissig schreiben, doch mein Viertel führt
+Du bist exklusiv? jetzt gibt's endlich Beef!
+Keiner von euch Pennern fährt mit mir im Jeep
+Du atmest wie ich und plözlich wir dir anders
+Du bist ex-gesigned, geh sag „Danke“ zu Pallas
+Mein Gangsta-Rap gibt euch Assis den Rest
+Dein Label schiebt Optik vor A.i.d.S, also...
+[Hook: Bushido]
+Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns, also
+[Skit: Bushido &amp; Label-CEO]„Was ist jetzt mit dem Vertrag?“„Äh, Vertrag, äh was für eine Vertrag äh, äh, könn' wir nicht ,äh, handeln irgendwas?“„Okay, mein Angebot, die Hälfte von deiner Firma, und ich kann machen was ich will!“„Wow! Die Hälfte von meine– Scheiße, ich brauche irgendwo, ich weiß nicht, wo sind meine Bodyguards?“„Du hast keine Bodyguards mehr! Draußen abgeknallt von unseren zehn tausend Fans!“„Oh scheiße ich glaub ich muss, ich muss, ich muss...“ (*Schussgeräusche*)
+[Hook: Bushido]
+Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns Also Renn! (Renn!), Bevor du verbrennst
+Wir stürmen dein Label mit zehntausend Fans und dann... (*Schussgeräusche*)
+Karriere gebumst, wenn keiner mehr da ist bleibt mehr Platz für uns
+[Outro]
+Also Renn! (Renn!) (Renn!) (Renn!) (Renn!) (Renn!) (Renn!)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -904,8 +1434,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Intro: Sample]„Gut, es gefällt mir nicht, dass es inzwischen das Tollste ist, schwarz zu sein.“„Gut.“„Ich hasse diesen Hip-Hop-Nigger-Einfluss auf die Weißen.“[Part 1]Ich höre jeden Tag dass irgendjemand irgendwas hatIrgendjemand, irgendetwas aus irgendner StadtIrgendwann wusste ich Scheiß auf die, die irgendwas habenIrgendwo über mich reden damit sie irgendwas sagenIch bin nicht irgendjemand aus irgendwoherIch brauch nix machen, weil die Scheiße kommt schon irgendwoherIrgendwer macht dann bestimmt am Ende irgendwie mitDu siehst schwul aus, doch irgendjemand findets irgendwie schickIch frag mich was an unserm Rap zu hart istKomm sag nicht, weil unser Rap nicht Schwarz istIch darf nix weil Deutscher Rap am Arsch istDu verkaufst nix weil du den Kids zu brav bistWas kann ich dafür? Dann bleib und rap dochDu willst nicht? Kein Problem ich mach den DrecksjobDen Jackpot den Rest kriegst du, du CrackbitchIch bin erst dann zufrieden wenn du Nutte den Dreck frisst[Hook]Ich hab mich daran gewöhnt das man nur Scheiße erlebtWeil ihr kleinen Mädchen da draußen nur Scheiße erzähltKommt und zeigt mir nur einmal was ihr über mich denktBring dein Löffel mit du Pussy und ich fütter dich, HemdIch hab nur ein Problem ich bin gemein wie 10Du bist wie 10, 10 Kinder die von Rap nix verstehnIch leg dir 50 Cents und 50 Fans in den SargDu bist nicht 2Pac und dein scheiß Leben war auch nicht hart
-[Sample]„Gut“[Part 2]Ich fick die Fans wie 50 CentIch mach solange Stress bis jede Bitch mich kenntIch bin zu explizit doch du magst den BeatIch hab kein Herz für Amerika und Angst vorm KriegDu Schwanz bist lieb, kackst ab und zeigst auf unsWarum? Weil mein Viertel alle deine Freunde bumst?Du lebst im Sumpf und fühlst dich als wäre es QueensbridgeJeder den ich frage kennt dich nur als die BitchIch mach kein Scherz man hört ihr könnt nicht flownDeiner Mutter bleibt nix übrig außer Dicks zu blownFick dich nach vorn egal wie sehr du dich jetzt anstrengstDu bringst nix zuende auch wenn du wieder anfängstDu bist peinlich, schwach und neidischDu bist feige und kommst mit über dreißigIch weiß jetzt du bist jetzt nur noch ScheißdreckMachst Scheißrap ein Blick und du rennst weit weg[Hook]Ich hab mich daran gewöhnt das man nur Scheiße erlebtWeil ihr kleinen Mädchen da draußen nur Scheiße erzähltKommt und zeigt mir nur einmal was ihr über mich denktBring dein Löffel mit du Pussy und ich fütter dich, HemdIch hab nur ein Problem ich bin gemein wie 10Du bist wie 10, 10 Kinder die von Rap nix verstehnIch leg dir 50 Cents und 50 Fans in den SargDu bist nicht 2Pac und dein scheiß Leben war auch nicht hart</t>
+          <t>[Intro: Sample]„Gut, es gefällt mir nicht, dass es inzwischen das Tollste ist, schwarz zu sein.“„Gut.“„Ich hasse diesen Hip-Hop-Nigger-Einfluss auf die Weißen.“
+[Part 1]
+Ich höre jeden Tag dass irgendjemand irgendwas hatIrgendjemand, irgendetwas aus irgendner StadtIrgendwann wusste ich Scheiß auf die, die irgendwas habenIrgendwo über mich reden damit sie irgendwas sagenIch bin nicht irgendjemand aus irgendwoherIch brauch nix machen, weil die Scheiße kommt schon irgendwoherIrgendwer macht dann bestimmt am Ende irgendwie mitDu siehst schwul aus, doch irgendjemand findets irgendwie schick
+Ich frag mich was an unserm Rap zu hart ist
+Komm sag nicht, weil unser Rap nicht Schwarz ist
+Ich darf nix weil Deutscher Rap am Arsch ist
+Du verkaufst nix weil du den Kids zu brav bist
+Was kann ich dafür? Dann bleib und rap doch
+Du willst nicht? Kein Problem ich mach den Drecksjob
+Den Jackpot den Rest kriegst du, du Crackbitch
+Ich bin erst dann zufrieden wenn du Nutte den Dreck frisst
+[Hook]
+Ich hab mich daran gewöhnt das man nur Scheiße erlebt
+Weil ihr kleinen Mädchen da draußen nur Scheiße erzählt
+Kommt und zeigt mir nur einmal was ihr über mich denkt
+Bring dein Löffel mit du Pussy und ich fütter dich, Hemd
+Ich hab nur ein Problem ich bin gemein wie 10
+Du bist wie 10, 10 Kinder die von Rap nix verstehn
+Ich leg dir 50 Cents und 50 Fans in den SargDu bist nicht 2Pac und dein scheiß Leben war auch nicht hart
+[Sample]„Gut“
+[Part 2]
+Ich fick die Fans wie 50 Cent
+Ich mach solange Stress bis jede Bitch mich kennt
+Ich bin zu explizit doch du magst den Beat
+Ich hab kein Herz für Amerika und Angst vorm Krieg
+Du Schwanz bist lieb, kackst ab und zeigst auf uns
+Warum? Weil mein Viertel alle deine Freunde bumst?
+Du lebst im Sumpf und fühlst dich als wäre es Queensbridge
+Jeder den ich frage kennt dich nur als die Bitch
+Ich mach kein Scherz man hört ihr könnt nicht flown
+Deiner Mutter bleibt nix übrig außer Dicks zu blown
+Fick dich nach vorn egal wie sehr du dich jetzt anstrengst
+Du bringst nix zuende auch wenn du wieder anfängst
+Du bist peinlich, schwach und neidisch
+Du bist feige und kommst mit über dreißig
+Ich weiß jetzt du bist jetzt nur noch Scheißdreck
+Machst Scheißrap ein Blick und du rennst weit weg
+[Hook]
+Ich hab mich daran gewöhnt das man nur Scheiße erlebt
+Weil ihr kleinen Mädchen da draußen nur Scheiße erzählt
+Kommt und zeigt mir nur einmal was ihr über mich denkt
+Bring dein Löffel mit du Pussy und ich fütter dich, Hemd
+Ich hab nur ein Problem ich bin gemein wie 10
+Du bist wie 10, 10 Kinder die von Rap nix verstehn
+Ich leg dir 50 Cents und 50 Fans in den SargDu bist nicht 2Pac und dein scheiß Leben war auch nicht hart</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,9 +1581,112 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Intro: Sample]„Keep it real wit' me I keep it real wit' youKeep it in the Fam, and got our eyes on you“Bushido, yeahJoek2, ahAh, ah, ah[Hook: Bushido &amp; Joek2]Tempelhof RockGeh, wohin der Pfeffer wächstDenkst du, dass du besser flextAb jetzt heißt es Gangsta Rap, yeahCharlottenburg BlockJeden von euch schwulen ToysIch jag dich und deine BoysPass gut auf wohin du läufst, yeahTempelhof RockGeh, wohin der Pfeffer wächstDenkst du, dass du besser flextAb jetzt heißt es Gangsta Rap, yeahCharlottenburg BlockJeden von euch schwulen ToysIch jag dich und deine BoysPass gut auf wohin du läufst, yeah[Verse 1: Joek2]Ich hab versprochen, dass du [?] gelaufenGeh nie [?] und ich achten daraufDass ich genau ziel auf die vielen MCs, die nicht real sindZerstör' das Biz, das Spiel wird zu bravIch muss den Frieden bekriegenDie meisten meiner Feinde sind auf dem Kriegspfad liegen gebliebenSpielt eure Spielchen, doch änder die Regeln, wirke wie DynamitAuf die Musikindustrie, ich werd zwar niemals beliebtBei Plattenbossen, die viel verdienen wollen mit ihren LPs[?] Loveparade mach zum KrisengebietErtränke die Punks und Mörderflows und die Raver flieh'n aus BerlinMein Stil ist zu deep und direkt, um ihn im Fernsehen zu sendenScheiß auf Fame, ich kriege Probs, bis ich sterbe als LegendeWer mich noch nicht kennt, lernt mich jetzt bald kennt, auch wenn Kommerz noch im Trend is'Bei [?] zwingen sie sich, in meinem Flammenmeer zu verbrennenDas wird verängstigt verendenAlles was ich verende, wird jetzt verängstigt, verwende mein TalentIndem ich meine Feinde bis ans Ende bekämpf'Ich kenn' keine Grenze, kein Limit in meinen LyricsIhr kleinen Bitches seid nicht in der Verfassung mich anzutastenBleib chillig, im Streit kill' ichTempelhof Rock!
-[Hook: Bushido &amp; Joek2]Tempelhof RockGeh, wohin der Pfeffer wächstDenkst du, dass du besser flextAb jetzt heißt es Gangsta Rap, yeahCharlottenburg BlockJeden von euch schwulen ToysIch jag dich und deine BoysPass gut auf wohin du läufst, yeahTempelhof RockGeh, wohin der Pfeffer wächstDenkst du, dass du besser flextAb jetzt heißt es Gangsta Rap, yeahCharlottenburg BlockJeden von euch schwulen ToysIch jag dich und deine BoysPass gut auf wohin du läufst, yeah[Verse 2: Bushido]Es wird wieder Zeit, Rap ist Geld, ich komm auf die LoveparadeMeine Taschen voller Pillen, wenn wir auf der Wiese chillenSonny Techno, es ist Ghetto, wenn ich Rap, yoDu bist Toy wie Fat Joe, yeah Ready, Set, Go!Ich dank' dem Smog, Battle mich an meinem BlockIch hab die Knarre unter dem Kissen und erledige den JobWer, will was von mir, yeah? Warum machst du es dir schwer?Ich komm zu euch Schwuchteln und ihr tut so als ob nichts wärStress nicht meinen Kopf, denkst du das ich hier nur zum Spaß bin?Jetzt wird geboxt und deine Mutter hält den Arsch hin, yeahWeil ich nicht brav bin, kommt keiner auf den PausenhofIhr Kinder schiebt jetzt Optik und heult euch eure Augen rotWas soll ich machen? Es liegt daran, dass es euch gibt, yeahIch bin nicht freundlich, deutscher Rap ist ToyshitIch kann dir nicht weh tun? Erzähl es meinen GürtelDu machst Interviews für MTV's und ich rap für mein ViertelIch mach jetzt Kohle, trotzdem fahr ich mit der BVGDu bist schwul und sitzt im Bad, mit Sojakeks und Grünen TeeRed nicht von Rap, wenn du zum Bluten nicht bereit bistIch weiß, du hast Angst und du deswegen nur ein Scheiß bist
-[Hook: Bushido &amp; Joek2]Tempelhof RockGeh, wohin der Pfeffer wächstDenkst du, dass du besser flextAb jetzt heißt es Gangsta Rap, yeahCharlottenburg BlockJeden von euch schwulen ToysIch jag dich und deine BoysPass gut auf wohin du läufst, yeahTempelhof RockGeh, wohin der Pfeffer wächstDenkst du, dass du besser flextAb jetzt heißt es Gangsta Rap, yeahCharlottenburg BlockJeden von euch schwulen ToysIch jag dich und deine BoysPass gut auf wohin du läufst, yeah[Outro: Joek2 &amp; Scratches/Samples]„The only way to live is the grimy way“Tempelhof Rock„Grimy way“Charlottenburg Block„Grimy way“</t>
+          <t>[Intro: Sample]
+„Keep it real wit' me I keep it real wit' youKeep it in the Fam, and got our eyes on you“
+Bushido, yeah
+Joek2, ah
+Ah, ah, ah
+[Hook: Bushido &amp;Joek2]
+Tempelhof Rock
+Geh, wohin der Pfeffer wächst
+Denkst du, dass du besser flext
+Ab jetzt heißt es Gangsta Rap, yeah
+Charlottenburg Block
+Jeden von euch schwulen Toys
+Ich jag dich und deine Boys
+Pass gut auf wohin du läufst, yeah
+Tempelhof Rock
+Geh, wohin der Pfeffer wächst
+Denkst du, dass du besser flext
+Ab jetzt heißt es Gangsta Rap, yeah
+Charlottenburg Block
+Jeden von euch schwulen Toys
+Ich jag dich und deine Boys
+Pass gut auf wohin du läufst, yeah
+[Verse 1: Joek2]
+Ich hab versprochen, dass du [?] gelaufen
+Geh nie [?] und ich achten darauf
+Dass ich genau ziel auf die vielen MCs, die nicht real sind
+Zerstör' das Biz, das Spiel wird zu brav
+Ich muss den Frieden bekriegen
+Die meisten meiner Feinde sind auf dem Kriegspfad liegen geblieben
+Spielt eure Spielchen, doch änder die Regeln, wirke wie Dynamit
+Auf die Musikindustrie, ich werd zwar niemals beliebt
+Bei Plattenbossen, die viel verdienen wollen mit ihren LPs
+[?] Loveparade mach zum Krisengebiet
+Ertränke die Punks und Mörderflows und die Raver flieh'n aus Berlin
+Mein Stil ist zu deep und direkt, um ihn im Fernsehen zu senden
+Scheiß auf Fame, ich kriege Probs, bis ich sterbe als Legende
+Wer mich noch nicht kennt, lernt mich jetzt bald kennt, auch wenn Kommerz noch im Trend is'
+Bei [?] zwingen sie sich, in meinem Flammenmeer zu verbrennen
+Das wird verängstigt verenden
+Alles was ich verende, wird jetzt verängstigt, verwende mein Talent
+Indem ich meine Feinde bis ans Ende bekämpf'
+Ich kenn' keine Grenze, kein Limit in meinen Lyrics
+Ihr kleinen Bitches seid nicht in der Verfassung mich anzutasten
+Bleib chillig, im Streit kill' ich
+Tempelhof Rock!
+[Hook: Bushido &amp;Joek2]
+Tempelhof Rock
+Geh, wohin der Pfeffer wächst
+Denkst du, dass du besser flext
+Ab jetzt heißt es Gangsta Rap, yeah
+Charlottenburg Block
+Jeden von euch schwulen Toys
+Ich jag dich und deine Boys
+Pass gut auf wohin du läufst, yeah
+Tempelhof Rock
+Geh, wohin der Pfeffer wächst
+Denkst du, dass du besser flext
+Ab jetzt heißt es Gangsta Rap, yeah
+Charlottenburg Block
+Jeden von euch schwulen Toys
+Ich jag dich und deine Boys
+Pass gut auf wohin du läufst, yeah
+[Verse 2: Bushido]
+Es wird wieder Zeit, Rap ist Geld, ich komm auf die Loveparade
+Meine Taschen voller Pillen, wenn wir auf der Wiese chillen
+Sonny Techno, es ist Ghetto, wenn ich Rap, yo
+Du bist Toy wie Fat Joe, yeah Ready, Set, Go!
+Ich dank' dem Smog, Battle mich an meinem Block
+Ich hab die Knarre unter dem Kissen und erledige den Job
+Wer, will was von mir, yeah? Warum machst du es dir schwer?
+Ich komm zu euch Schwuchteln und ihr tut so als ob nichts wär
+Stress nicht meinen Kopf, denkst du das ich hier nur zum Spaß bin?
+Jetzt wird geboxt und deine Mutter hält den Arsch hin, yeah
+Weil ich nicht brav bin, kommt keiner auf den Pausenhof
+Ihr Kinder schiebt jetzt Optik und heult euch eure Augen rot
+Was soll ich machen? Es liegt daran, dass es euch gibt, yeah
+Ich bin nicht freundlich, deutscher Rap ist Toyshit
+Ich kann dir nicht weh tun? Erzähl es meinen Gürtel
+Du machst Interviews für MTV's und ich rap für mein Viertel
+Ich mach jetzt Kohle, trotzdem fahr ich mit der BVG
+Du bist schwul und sitzt im Bad, mit Sojakeks und Grünen Tee
+Red nicht von Rap, wenn du zum Bluten nicht bereit bist
+Ich weiß, du hast Angst und du deswegen nur ein Scheiß bist
+[Hook: Bushido &amp; Joek2]
+Tempelhof Rock
+Geh, wohin der Pfeffer wächst
+Denkst du, dass du besser flext
+Ab jetzt heißt es Gangsta Rap, yeah
+Charlottenburg Block
+Jeden von euch schwulen Toys
+Ich jag dich und deine Boys
+Pass gut auf wohin du läufst, yeah
+Tempelhof Rock
+Geh, wohin der Pfeffer wächst
+Denkst du, dass du besser flext
+Ab jetzt heißt es Gangsta Rap, yeah
+Charlottenburg Block
+Jeden von euch schwulen Toys
+Ich jag dich und deine Boys
+Pass gut auf wohin du läufst, yeah
+[Outro: Joek2 &amp; Scratches/Samples]
+„The only way to live is the grimy way“
+Tempelhof Rock
+„Grimy way“
+Charlottenburg Block
+„Grimy way“</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1064,9 +1740,69 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Intro: Fler &amp; Mailbox](Nächste Nachricht)„Yeah Bushido, was geht, Alter, ich bin grad hier grad bei Pallas angekommen, ich wart' noch auf dich, ja, MannKomm mal vorbei, komm mal zu Aggro, lass mal einen Track für dein Album aufnehmen, ich hab grad die anderen Tracks gehört, Mann, die sind Bombe, Mann. Beeil dich mal, ich wart' noch so 10 Minuten. Bis gleich, Tschau!“(Ende der Nachricht)[Part 1: Bushido]Die Party is vorbei, denn ab jetz heißt Rappen BloodsportIch kenn weder dich, deine Crew, noch dein kack Dorf (fuck Torch)Ich hab kein Respekt, kein KomplexUnd überhaupt keine Ahnung, worüber du Nutte rappst, fickAuf alle MC's, ich bin zu hart für Deutschen RapMir is' scheiß egal wohin ihr geht und wo ihr euch verstecktJetz' is' break-down, ich komm' in deine TownGeh dir ein Baumhaus bau'n, ich bums' jetz' deine FrauenIch mach mein Geld mit Trips, Koks und Crack-RocksUnd bis der Asphalt brennt, mach ich am Block den JackpotIch Rap noch immer, für die Kids am SpielplatzEs hat sich nichts geändert, Sonny macht den Beat krassDie Street hasst euch, eure Tracks, euren Ami-SlangIhr seid Toys, weil ich komm und eure Party bang'Ich bin zu direkt, zu brutal, zu komplettBin der Grund, warum Stuttgart nix verkauft und verreckt (wooh)Ab jetz is jeder, der beschissen rappt, mein FeindDrück auf Stop, wenn du genug hast, oder fürs Battle Rewind (yeah)
-[Hook: Bushido &amp; Fler]Die Felgen spiegeln sich im Asphalt, bis der Asphalt brenntDu siehst die Stadt bei Nacht, so lange, bis der Asphalt brenntDer Stein is' nur so lange kalt, bis der Asphalt brenntIch rapp' für meinen Bezirk, so lange, bis der Asphalt brenntDie Felgen spiegeln sich im Asphalt, bis der Asphalt brenntDu siehst die Stadt bei Nacht, so lange, bis der Asphalt brenntDer Stein is' nur so lange kalt, bis der Asphalt brenntIch rapp' für meinen Bezirk, so lange, bis der Asphalt brennt[Part 2: Fler]Wer bietet mehr als ich, Frank White ihr seid alle ganz weitDavon entfernt, mich zu erreichen, ich bin ganz weit weg (huhu)Gib mir das Mic du Keck, ich Rappe und das Land schreit (yeah)Ich boxe euch beide nur aus dem Grund, weil ihr verwandt seid (yeah)Ich mach mein Tape und jeder von euch will dabei sein (oh)Du willst mich battlen und ich fick dir in dein Steissbein (urgh)Bushido seine Skyline, wer macht den besten Beat der Stadt? (yeah)Du machst auf Gangster, doch ich fick auch euer Lied du SpastDie ganze Welt ist jetzt mein Feind, ich zieh euch ab und geh'Alleine durch die Straßen, aus der Stadt, in der ich leb' (uh)Wer is so hart wie ich und überlebt in dieser ZeitIn dieser Stadt, in dem Bezirk mit keiner Hilfe weit und breit? (ich)Jetz bin ich Underground, morgen hol' ich den Comet (woah)Du gehst nach Hause, weil im Hip-Hop ohne mich nichts gehtDu kommst zu spät, mein Tape is leider ausverkauft (yeah)Macht was ihr wollt, ihr Spasten, ihr bleibt out!
-[Hook: Bushido &amp; Fler]Die Felgen spiegeln sich im Asphalt, bis der Asphalt brenntDu siehst die Stadt bei Nacht, so lange, bis der Asphalt brenntDer Stein is' nur so lange kalt, bis der Asphalt brenntIch rapp' für meinen Bezirk, so lange, bis der Asphalt brenntDie Felgen spiegeln sich im Asphalt, bis der Asphalt brenntDu siehst die Stadt bei Nacht, so lange, bis der Asphalt brenntDer Stein is' nur so lange kalt, bis der Asphalt brenntIch rapp' für meinen Bezirk, so lange, bis der Asphalt brenntDie Felgen spiegeln sich im Asphalt, bis der Asphalt brenntDu siehst die Stadt bei Nacht, so lange, bis der Asphalt brenntDer Stein is' nur so lange kalt, bis der Asphalt brenntIch rapp' für meinen Bezirk, so lange, bis der Asphalt brennt</t>
+          <t>[Intro: Fler &amp;Mailbox]
+(Nächste Nachricht)
+„Yeah Bushido, was geht, Alter,ich bin grad hier grad bei Pallas angekommen,ich wart' noch auf dich, ja, Mann
+Komm mal vorbei, komm mal zu Aggro, lass mal einen Track für dein Album aufnehmen, ich hab grad die anderen Tracks gehört, Mann, die sind Bombe, Mann. Beeil dich mal, ich wart' noch so 10 Minuten. Bis gleich, Tschau!“
+(Ende der Nachricht)
+[Part 1: Bushido]
+Die Party is vorbei, denn ab jetz heißt Rappen Bloodsport
+Ich kenn weder dich, deine Crew, noch dein kack Dorf (fuck Torch)
+Ich hab kein Respekt, kein Komplex
+Und überhaupt keine Ahnung, worüber du Nutte rappst, fick
+Auf alle MC's, ich bin zu hart für Deutschen Rap
+Mir is' scheiß egal wohin ihr geht und wo ihr euch versteckt
+Jetz' is' break-down, ich komm' in deine Town
+Geh dir ein Baumhaus bau'n, ich bums' jetz' deine Frauen
+Ich mach mein Geld mit Trips, Koks und Crack-Rocks
+Und bis der Asphalt brennt, mach ich am Block den Jackpot
+Ich Rap noch immer, für die Kids am Spielplatz
+Es hat sich nichts geändert, Sonny macht den Beat krass
+Die Street hasst euch, eure Tracks, euren Ami-Slang
+Ihr seid Toys, weil ich komm und eure Party bang'
+Ich bin zu direkt, zu brutal, zu komplett
+Bin der Grund, warum Stuttgart nix verkauft und verreckt (wooh)
+Ab jetz is jeder, der beschissen rappt, mein Feind
+Drück auf Stop, wenn du genug hast, oder fürs Battle Rewind (yeah)
+[Hook: Bushido &amp;Fler]
+Die Felgen spiegeln sich im Asphalt, bis der Asphalt brennt
+Du siehst die Stadt bei Nacht, so lange, bis der Asphalt brennt
+Der Stein is' nur so lange kalt, bis der Asphalt brennt
+Ich rapp' für meinen Bezirk, so lange, bis der Asphalt brennt
+Die Felgen spiegeln sich im Asphalt, bis der Asphalt brennt
+Du siehst die Stadt bei Nacht, so lange, bis der Asphalt brennt
+Der Stein is' nur so lange kalt, bis der Asphalt brennt
+Ich rapp' für meinen Bezirk, so lange, bis der Asphalt brennt
+[Part 2: Fler]
+Wer bietet mehr als ich, Frank White ihr seid alle ganz weit
+Davon entfernt, mich zu erreichen, ich bin ganz weit weg (huhu)
+Gib mir das Mic du Keck, ich Rappe und das Land schreit (yeah)
+Ich boxe euch beide nur aus dem Grund, weil ihr verwandt seid (yeah)
+Ich mach mein Tape und jeder von euch will dabei sein (oh)
+Du willst mich battlen und ich fick dir in dein Steissbein (urgh)
+Bushido seine Skyline,wer macht den besten Beat der Stadt? (yeah)
+Du machst auf Gangster, doch ich fick auch euer Lied du Spast
+Die ganze Welt ist jetzt mein Feind, ich zieh euch ab und geh'
+Alleine durch die Straßen, aus der Stadt, in der ich leb' (uh)
+Wer is so hart wie ich und überlebt in dieser Zeit
+In dieser Stadt, in dem Bezirk mit keiner Hilfe weit und breit? (ich)
+Jetz bin ich Underground, morgen hol' ich den Comet (woah)
+Du gehst nach Hause, weil im Hip-Hop ohne mich nichts geht
+Du kommst zu spät, mein Tape is leider ausverkauft (yeah)
+Macht was ihr wollt, ihr Spasten, ihr bleibt out!
+[Hook: Bushido &amp; Fler]
+Die Felgen spiegeln sich im Asphalt, bis der Asphalt brennt
+Du siehst die Stadt bei Nacht, so lange, bis der Asphalt brennt
+Der Stein is' nur so lange kalt, bis der Asphalt brennt
+Ich rapp' für meinen Bezirk, so lange, bis der Asphalt brennt
+Die Felgen spiegeln sich im Asphalt, bis der Asphalt brennt
+Du siehst die Stadt bei Nacht, so lange, bis der Asphalt brennt
+Der Stein is' nur so lange kalt, bis der Asphalt brennt
+Ich rapp' für meinen Bezirk, so lange, bis der Asphalt brennt
+Die Felgen spiegeln sich im Asphalt, bis der Asphalt brennt
+Du siehst die Stadt bei Nacht, so lange, bis der Asphalt brennt
+Der Stein is' nur so lange kalt, bis der Asphalt brennt
+Ich rapp' für meinen Bezirk, so lange, bis der Asphalt brennt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1120,9 +1856,91 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Hook]Es kommt die Nacht in der man nichts mehr siehtMan nur noch Bomben hört und weiß: „Jetzt ist Krieg“Ich würd´ so gerne einfach nur sitzen und wartenAn nichts schlechtes denken müssen, wie mit 14 im GartenWas hab ich getan, weshalb so schlimmes geschieht?Man die Familie verliert, vor lauter Angst einfach fliehtIch komm mir vor, wie in ´nem roten SargFür viele sinds die letzten Worte an 'nem toten Tag...[Part 1:]Hier ist ein Land, in dem ein kalter Wind wehtEin kalter Boden, auf dem man schon als Kind lebtIch wache oft auf, weil ich träume schlechtIch habe Angst man nimmt mir meine Freunde wegIch durfte nicht oft auf den SpielplatzUm so wie andere zu sein, spür´ ich zu viel HassIch bin heute nur so, weil ich schon damals so warIch kannte damals viele Leute, heut´ ist keiner mehr daManchmal lag es an mir, doch dann lag's einfach an euchMan kanns nicht sehen, aber einer meiner Hälften ist deutschUnd plötzlich kommt dieser Tag, der Tag der nie wieder gehtDer eine Tag, an dem du merkst, dass sich die Welt nicht mehr dreht...[Hook]Es kommt die Nacht in der man nichts mehr siehtMan nur noch Bomben hört und weiß: „Jetzt ist Krieg“Ich würd´ so gerne einfach nur sitzen und wartenAn nichts schlechtes denken müssen, wie mit 14 im GartenWas hab ich getan, weshalb so schlimmes geschieht?Man die Familie verliert, vor lauter Angst einfach fliehtIch komm mir vor, wie in ´nem roten SargFür viele sinds die letzten Worte an 'nem toten Tag...
-[Part 2]Es ist der Tag, nachdem keiner hier gerufen hatEs ist der Tag, an dem keiner was zu suchen hatDoch es passiert, weil Amerika mich nicht magEr ist verliebt in sich selbst und fühlt sich starkEr will: Öl, Ruhm, Blut, Rauch...Ich weiß genau, er hat dem Teufel seine Seele verkauftEr nimmt sich einfach die Welt, so wie's ihm gefälltEr baut sich Tempel aus Gold und gibt dem Moslems ein ZeltMir wird kalt, ich seh, dass meine Mutter weintWeil sie weiss, dass für uns Kinder keine Sonne scheintEs ist vorbei! Der Qualm steht am FirmamentUnd jetz sind wir uns sicher, dass unsere Heimat brennt[Hook]Es kommt die Nacht in der man nichts mehr siehtMan nur noch Bomben hört und weiß: „Jetzt ist Krieg“Ich würd´ so gerne einfach nur sitzen und wartenAn nichts schlechtes denken müssen, wie mit 14 im GartenWas hab ich getan, weshalb so schlimmes geschieht?Man die Familie verliert, vor lauter Angst einfach fliehtIch komm mir vor, wie in ´nem roten SargFür viele sinds die letzten Worte an 'nem toten Tag...[Part 3]Jede Kugel die fliegt, trifft letzten Endes ihr ZielEr sitzt im Weissen Haus und redet als wär Krieg nur ein SpielMan bräuchte nur genügend Geld, um alles aufzubauenWie viel Geld braucht man, um tote Kinder aufzubauen?Wie viele Väter haben Tränen vergossen?Wie viele Mütter mussten flehen und hoffen?Er sagt er schütze doch nur seine NationMit seinen dreckigen Lügen und jede Menge KanonenWie viele Kinder werden wieder ohne Brüder geboren?Eins steht fest: Sähst du Hass dann erntest du ZornDu kannst nicht ändernDu brauchst den ganzen Weg nicht zu rennen!Die Welt gehört einem einzigen "Stupid White Man"!
-[Hook]Es kommt die Nacht in der man nichts mehr siehtMan nur noch Bomben hört und weiß: „Jetzt ist Krieg“Ich würd´ so gerne einfach nur sitzen und wartenAn nichts schlechtes denken müssen, wie mit 14 im GartenWas hab ich getan, weshalb so schlimmes geschieht?Man die Familie verliert, vor lauter Angst einfach fliehtIch komm mir vor, wie in ´nem roten SargFür viele sinds die letzten Worte an 'nem toten Tag...[Hook]Es kommt die Nacht in der man nichts mehr siehtMan nur noch Bomben hört und weiß: „Jetzt ist Krieg“Ich würd´ so gerne einfach nur sitzen und wartenAn nichts schlechtes denken müssen, wie mit 14 im GartenWas hab ich getan, weshalb so schlimmes geschieht?Man die Familie verliert, vor lauter Angst einfach fliehtIch komm mir vor, wie in ´nem roten SargFür viele sinds die letzten Worte an 'nem toten Tag...[Outro/Sample]„There´s a war going on outside no man is safe fromYou can run but you can´t hide forever“</t>
+          <t>[Hook]
+Es kommt die Nacht in der man nichts mehr sieht
+Man nur noch Bomben hört und weiß: „Jetzt ist Krieg“
+Ich würd´ so gerne einfach nur sitzen und warten
+An nichts schlechtes denken müssen, wie mit 14 im Garten
+Was hab ich getan, weshalb so schlimmes geschieht?
+Man die Familie verliert, vor lauter Angst einfach flieht
+Ich komm mir vor, wie in ´nem roten Sarg
+Für viele sinds die letzten Worte an 'nem toten Tag...
+[Part 1:]
+Hier ist ein Land, in dem ein kalter Wind weht
+Ein kalter Boden, auf dem man schon als Kind lebt
+Ich wache oft auf, weil ich träume schlecht
+Ich habe Angst man nimmt mir meine Freunde weg
+Ich durfte nicht oft auf den Spielplatz
+Um so wie andere zu sein, spür´ ich zu viel Hass
+Ich bin heute nur so, weil ich schon damals so war
+Ich kannte damals viele Leute, heut´ ist keiner mehr da
+Manchmal lag es an mir, doch dann lag's einfach an euch
+Man kanns nicht sehen, aber einer meiner Hälften ist deutsch
+Und plötzlich kommt dieser Tag, der Tag der nie wieder geht
+Der eine Tag, an dem du merkst, dass sich die Welt nicht mehr dreht...
+[Hook]
+Es kommt die Nacht in der man nichts mehr sieht
+Man nur noch Bomben hört und weiß: „Jetzt ist Krieg“
+Ich würd´ so gerne einfach nur sitzen und warten
+An nichts schlechtes denken müssen, wie mit 14 im Garten
+Was hab ich getan, weshalb so schlimmes geschieht?
+Man die Familie verliert, vor lauter Angst einfach flieht
+Ich komm mir vor, wie in ´nem roten Sarg
+Für viele sinds die letzten Worte an 'nem toten Tag...
+[Part 2]
+Es ist der Tag, nachdem keiner hier gerufen hat
+Es ist der Tag, an dem keiner was zu suchen hat
+Doch es passiert, weil Amerika mich nicht mag
+Er ist verliebt in sich selbst und fühlt sich stark
+Er will: Öl, Ruhm, Blut, Rauch...
+Ich weiß genau, er hat dem Teufel seine Seele verkauft
+Er nimmt sich einfach die Welt, so wie's ihm gefällt
+Er baut sich Tempel aus Gold und gibt dem Moslems ein Zelt
+Mir wird kalt, ich seh, dass meine Mutter weint
+Weil sie weiss, dass für uns Kinder keine Sonne scheint
+Es ist vorbei! Der Qualm steht am Firmament
+Und jetz sind wir uns sicher, dass unsere Heimat brennt
+[Hook]
+Es kommt die Nacht in der man nichts mehr sieht
+Man nur noch Bomben hört und weiß: „Jetzt ist Krieg“
+Ich würd´ so gerne einfach nur sitzen und warten
+An nichts schlechtes denken müssen, wie mit 14 im Garten
+Was hab ich getan, weshalb so schlimmes geschieht?
+Man die Familie verliert, vor lauter Angst einfach flieht
+Ich komm mir vor, wie in ´nem roten Sarg
+Für viele sinds die letzten Worte an 'nem toten Tag...
+[Part 3]
+Jede Kugel die fliegt, trifft letzten Endes ihr Ziel
+Er sitzt im Weissen Haus und redet als wär Krieg nur ein Spiel
+Man bräuchte nur genügend Geld, um alles aufzubauenWie viel Geld braucht man, um tote Kinder aufzubauen?
+Wie viele Väter haben Tränen vergossen?Wie viele Mütter mussten flehen und hoffen?
+Er sagt er schütze doch nur seine Nation
+Mit seinen dreckigen Lügen und jede Menge Kanonen
+Wie viele Kinder werden wieder ohne Brüder geboren?
+Eins steht fest: Sähst du Hass dann erntest du Zorn
+Du kannst nicht ändern
+Du brauchst den ganzen Weg nicht zu rennen!
+Die Welt gehört einem einzigen "Stupid White Man"!
+[Hook]
+Es kommt die Nacht in der man nichts mehr sieht
+Man nur noch Bomben hört und weiß: „Jetzt ist Krieg“
+Ich würd´ so gerne einfach nur sitzen und warten
+An nichts schlechtes denken müssen, wie mit 14 im Garten
+Was hab ich getan, weshalb so schlimmes geschieht?
+Man die Familie verliert, vor lauter Angst einfach flieht
+Ich komm mir vor, wie in ´nem roten Sarg
+Für viele sinds die letzten Worte an 'nem toten Tag...
+[Hook]
+Es kommt die Nacht in der man nichts mehr sieht
+Man nur noch Bomben hört und weiß: „Jetzt ist Krieg“
+Ich würd´ so gerne einfach nur sitzen und warten
+An nichts schlechtes denken müssen, wie mit 14 im Garten
+Was hab ich getan, weshalb so schlimmes geschieht?
+Man die Familie verliert, vor lauter Angst einfach flieht
+Ich komm mir vor, wie in ´nem roten Sarg
+Für viele sinds die letzten Worte an 'nem toten Tag...
+[Outro/Sample]
+„There´s a war going on outside no man is safe fromYou can run but you can´t hide forever“</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1176,9 +1994,77 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Part 1: Fler]Ich bin die Erfüllung deiner Träume, du Nutte weißt, ich mach mein GeldDu willst heut mein Engel sein, weil jeder meine Tapes bestelltIch fick die ganze Welt, ihr denkt, Rap heißt Party machenFrüher war'n wir Freunde, heute dreh ich meine krummen SachenIch muss lachen, wenn ich seh, was draus geworden istDamals warst du scheiße und ich seh, dass du's auch morgen bistIch bin nicht nett und mein Herz ist bitterkaltMeine Flows rollen auf der Straße wie die Felgen auf dem AsphaltZieh dich an, du bleibst klein und wirst kein MannEs geht weiter, halt dich ran, denn irgendwann ist jeder dranAlso komm du Spast, ich geb dir nicht die HandIch vergess die Sache nicht, bei dir verläuft der Scheiß im SandSag ich bin krank, doch jetzt zeig ich dir wie's läuftIch fick dein Vater, es ist Rap-Electro-GhettoYeah, ich bin Fler, dein Alptraum du HipHop-MädelDu kannst weiter dancen und ich box dir dein klein SchädelWo is dein Freund, ich hab Kugeln für euch alleIhr könnt schlichten wie ihr wollt, doch es bleibt die selbe Sache[Hook: Bushido &amp; Fler]Yeah, wir sind die Zukunft, scheiß auf die VergangenheitSonny Black und Frank White, wir ficken euern Arsch zu zweitYeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weintIch hab die Schultern breit und lache, wenn ihr Kinder schreitYeah, wir sind die Zukunft, scheiß auf die VergangenheitSonny Black und Frank White, wir ficken euern Arsch zu zweitYeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weintIch hab die Schultern breit und lache, wenn ihr Kinder schreit
-[Part 2: Bushido]Ich komm zur Party und sehe deinen BlickDu hast Optik, weil jetzt plötzlich alles anders istDu guckst mich an, ich hab' Style und das GeldHeute bin ich all das, was euch Fotzen so gefälltDu willst mit mir reden, ich mach dein Leben zur NutteIch brauch dich nur einmal sehn, damit ich 2 mal auf dich spuckeEs ist viel passiert, glaubst du, dass ich es vergessen habEin schwules Wort von deinen Freunden und ich stech sie abSonny Black und Frank White, ich hasse die VergangenheitIhr seid Huren, ganz egal, ob ihr zusammen seidEs ist die Zeit die mir zeigt, dass ihr es falsch machtDu willst haten, komm wir treffen und um halb 8Jetzt mal ernsthaft, so scheiße wie das Leben istDeine ganze Scheiße war schon immer gegen michMacht nur weiter so ihr Toys, fick auf eure Shit-BeatsEs ist Tempelhof, ich box euch in die 60s[Hook: Bushido &amp; Fler]Yeah, wir sind die Zukunft, scheiß auf die VergangenheitSonny Black und Frank White, wir ficken euern Arsch zu zweitYeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weintIch hab die Schultern breit und lache, wenn ihr Kinder schreitYeah, wir sind die Zukunft, scheiß auf die VergangenheitSonny Black und Frank White, wir ficken euern Arsch zu zweitYeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weintIch hab die Schultern breit und lache, wenn ihr Kinder schreit
-[Part 3: Bushido &amp; Fler]Ich mach mein Geld, denn wenn nich', wär ich genauso armWie damals, doch du Spast kannst mit 18 Jahren dein Auto fahrenDu meinst, du hast den Plan, ich scheibe Raps und fick dein LebenIhr kommt nicht klar und müsst Scheiße hinterm Rücken redenWo seid ihr Wichser, in meinem Arsch ihr KinderIch will die Sache klären, doch ihr Spasten seid behindertDu lebst in der Vergangenheit, ab heute heißt es ZukunftEs ist mein Track, den du hörst, der deine Crew bumstIch mach ein Scheißtape und jeder Trottel ist geficktUnd schleimt sich ein bei mir, du sagst Carlo Cokxxx gefällt dirIch brauch ein' Monat und hab mehr erreicht als deine KinderDu rappst über Rap, dein Gefake zählt ein Scheiß du WichserMr. Cordon Sport, Mr. Carlo MassenmordScheiß auf euren Untergrund, Rap is' mein CentercourtHände weg hart bis zum Ende KekWer braucht jetzt deinen Track, mein Rap ist schwer wie beton[Hook: Bushido &amp; Fler]Yeah, wir sind die Zukunft, scheiß auf die VergangenheitSonny Black und Frank White, wir ficken euern Arsch zu zweitYeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weintIch hab die Schultern breit und lache, wenn ihr Kinder schreitYeah, wir sind die Zukunft, scheiß auf die VergangenheitSonny Black und Frank White, wir ficken euern Arsch zu zweitYeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weintIch hab die Schultern breit und lache, wenn ihr Kinder schreit</t>
+          <t>[Part 1: Fler]
+Ich bin die Erfüllung deiner Träume, du Nutte weißt, ich mach mein Geld
+Du willst heut mein Engel sein, weil jeder meine Tapes bestellt
+Ich fick die ganze Welt, ihr denkt, Rap heißt Party machen
+Früher war'n wir Freunde, heute dreh ich meine krummen Sachen
+Ich muss lachen, wenn ich seh, was draus geworden ist
+Damals warst du scheiße und ich seh, dass du's auch morgen bist
+Ich bin nicht nett und mein Herz ist bitterkalt
+Meine Flows rollen auf der Straße wie die Felgen auf dem Asphalt
+Zieh dich an, du bleibst klein und wirst kein Mann
+Es geht weiter, halt dich ran, denn irgendwann ist jeder dran
+Also komm du Spast, ich geb dir nicht die Hand
+Ich vergess die Sache nicht, bei dir verläuft der Scheiß im Sand
+Sag ich bin krank, doch jetzt zeig ich dir wie's läuft
+Ich fick dein Vater, es ist Rap-Electro-Ghetto
+Yeah, ich bin Fler, dein Alptraum du HipHop-Mädel
+Du kannst weiter dancen und ich box dir dein klein Schädel
+Wo is dein Freund, ich hab Kugeln für euch alle
+Ihr könnt schlichten wie ihr wollt, doch es bleibt die selbe Sache
+[Hook: Bushido &amp;Fler]
+Yeah, wir sind die Zukunft, scheiß auf die Vergangenheit
+Sonny Black und Frank White, wir ficken euern Arsch zu zweit
+Yeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weint
+Ich hab die Schultern breitund lache, wenn ihr Kinder schreit
+Yeah, wir sind die Zukunft, scheiß auf die Vergangenheit
+Sonny Black und Frank White, wir ficken euern Arsch zu zweit
+Yeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weint
+Ich hab die Schultern breitund lache, wenn ihr Kinder schreit
+[Part 2: Bushido]
+Ich komm zur Party und sehe deinen Blick
+Du hast Optik, weil jetzt plötzlich alles anders ist
+Du guckst mich an, ich hab' Style und das GeldHeute bin ich all das, was euch Fotzen so gefällt
+Du willst mit mir reden, ich mach dein Leben zur Nutte
+Ich brauch dich nur einmal sehn, damit ich 2 mal auf dich spucke
+Es ist viel passiert, glaubst du, dass ich es vergessen hab
+Ein schwules Wort von deinen Freunden und ich stech sie ab
+Sonny Black und Frank White, ich hasse die Vergangenheit
+Ihr seid Huren, ganz egal, ob ihr zusammen seid
+Es ist die Zeit die mir zeigt, dass ihr es falsch macht
+Du willst haten, komm wir treffen und um halb 8
+Jetzt mal ernsthaft, so scheiße wie das Leben ist
+Deine ganze Scheiße war schon immer gegen mich
+Macht nur weiter so ihr Toys, fick auf eure Shit-Beats
+Es ist Tempelhof, ich box euch in die 60s
+[Hook: Bushido &amp; Fler]
+Yeah, wir sind die Zukunft, scheiß auf die Vergangenheit
+Sonny Black und Frank White, wir ficken euern Arsch zu zweit
+Yeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weint
+Ich hab die Schultern breit und lache, wenn ihr Kinder schreit
+Yeah, wir sind die Zukunft, scheiß auf die Vergangenheit
+Sonny Black und Frank White, wir ficken euern Arsch zu zweit
+Yeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weint
+Ich hab die Schultern breit und lache, wenn ihr Kinder schreit
+[Part 3: Bushido &amp; Fler]
+Ich mach mein Geld, denn wenn nich', wär ich genauso armWie damals, doch du Spast kannst mit 18 Jahren dein Auto fahrenDu meinst, du hast den Plan, ich scheibe Raps und fick dein LebenIhr kommt nicht klar und müsst Scheiße hinterm Rücken redenWo seid ihr Wichser, in meinem Arsch ihr Kinder
+Ich will die Sache klären, doch ihr Spasten seid behindert
+Du lebst in der Vergangenheit, ab heute heißt es Zukunft
+Es ist mein Track, den du hörst, der deine Crew bumst
+Ich mach ein Scheißtape und jeder Trottel ist geficktUnd schleimt sich ein bei mir, du sagst Carlo Cokxxx gefällt dirIch brauch ein' Monat und hab mehr erreicht als deine KinderDu rappst über Rap, dein Gefake zählt ein Scheiß du WichserMr. Cordon Sport, Mr. Carlo Massenmord
+Scheiß auf euren Untergrund, Rap is' mein Centercourt
+Hände weg hart bis zum Ende Kek
+Wer braucht jetzt deinen Track, mein Rap ist schwer wie beton
+[Hook: Bushido &amp; Fler]
+Yeah, wir sind die Zukunft, scheiß auf die Vergangenheit
+Sonny Black und Frank White, wir ficken euern Arsch zu zweit
+Yeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weint
+Ich hab die Schultern breit und lache, wenn ihr Kinder schreit
+Yeah, wir sind die Zukunft, scheiß auf die Vergangenheit
+Sonny Black und Frank White, wir ficken euern Arsch zu zweit
+Yeah, es ist unsere Zeit, scheiß drauf, ob die Fotze weint
+Ich hab die Schultern breit und lache, wenn ihr Kinder schreit</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1232,10 +2118,78 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Intro: Mailbox](Nächste Nachricht:)„Ey du Spast denkst du kannst mit mir umgehen, Alter? Du Wichser, du Missgeburt, Alter? Wer denkst du wer du bist, Alter? Ey, bist du überhaupt noch klar mit deinem Leben, oder was? Ey, weißt du was, du Wichser, du kannst mich mal so krass am Arsch, Alter. Wenn ich dich's nächste mal seh, ich schwör dir, hau ab, Alter. Renn nur so weit du kannst, Alter, sonst mach ich dich kaputt, Alter!“[Part 1: Bushido]Ey yo, ich scheiß drauf, ich nehm' mir meine Cordon und hau reinDie Nutte fickt meinen Kopf, ich kann jetzt erstmal nicht mehr bei ihr seinIch geh nach draußen und mach mich auf den WegIch hab den ganzen Tag gestritten, wegen ihr komm ich zu spät (Oh shit)Draussen regnet's, nicht nass werden geht nichtMir kommt es vor, als wär die ganze scheiß Welt gegen michIch sitz im Bus, Endstation, und ich muss wieder raus in den RegenWieder raus in mein Leben[Part 2: Bushido &amp; Fler]Was geht ab bei dir? Ich bin seit halb acht hierIch ruf dich drei mal an, du gehst nicht einmal ranIch steh im Regen, warum kommst du Spast denn jetzt zu spät?Ich musste reden weil sie wieder mal am Zeiger dreht!Was ist passiert? - Ach scheiße ich bin explodiertDie Nutte geht auf Partys und denkt das es mich nicht interessiertKomm, klär den Scheiß, mein Wagen steht im WendekreisIch kenn den Weg von hier - Nur sag mir wie die Straße heißt[Skit 1: Bushido &amp; Fler]„Ach, die geht mir auf die Nerven alter, verstehste?“„Du musst einfach mit ihr reden und dann hat sich alles erledigt, Mann. Sollen wir mit meinem Wagen hinfahren, wir können das regeln.“„Mann, ich weiß nicht, Alter.“„Ah, das wird schon klappen, Alter.“(*Schniefgeräusche*)
-[Part 3: Bushido &amp; Fler]Bushido, chill, ist gut, du wirst schon sehn sie tutNur so auf böse und am nächsten Tag ist alles besserSie braucht die Freiheit, die Partys und den HighlifeGib ihr die Chance, du wirst seh'n, dass es dabei bleibtSie sucht den Kompromiss und glaubt an dich und euchDenk dran, was morgen ist und nicht an das was heut'Für Scheiße kam, bald liegt ihr wieder Arm in ArmIn ihrem Bett zu Hause mach den Kopf zu und komm klarMann du hast Recht, im Moment geht's mir zwar schlechtDoch wär sie gar nicht mehr hier, hätt ich glaub ich richtig PechSie bedeutet mir zu viel, als dass ich ohne sie kannSie ist zwar nur 'ne Frau, doch an ihr hängt mir zuviel dran!Drück aufs Gas, ich will es klärnHeute war nicht so der Tag und aus Fehlern soll man lernenIch werds ihr sagen, jetzt, und nicht irgendwann!Fahr nach vorne bis zur Einfahrt, okay gut, halt an![Skit 2: Bushido und Fler]„Okay, alles klar, Alter, sehr schön. Ok ich geh jetzt nach oben, Alter (ja), und ich klär die Sache mit der Nutte“Aber mach nicht so lange, okay?“„Ja, Mann, ich beeil mich, Alter.“„Ich steh nicht so lange rum, Alter.“„Ey, warte mal kurz.“„Was denn?“„Was ist das für ein Auto da hinten, Alter?“„Kennste nicht den Wagen, Alter?“„Ich weiß nicht, Mann. Irgendwie nicht so, Alter.“„War der schonmal bei ihr, Alter?„Ich weiß nicht, Mann. Aber von wem soll der sonst sein, der steht genau vor ihrer Tür, Mann.“„Meinst du, da ist jemand bei ihr, Alter? Krass, Mann.“„Ich weiß nicht, Mann. Aber da ist kein Parkplatz, da ist privat, Mann!“„Dann lass hoch gehen.“„Ok ok, komm mit, komm mit.“
-[Part 4: Bushido &amp; Fler]Das was ich sehe reicht, wie stark kann das Gefühl seinWenn du weißt, dass sie dich verarscht, ich trete ihre Tür ein!Ab durch den Flur und wir steh'n in ihrem ZimmerIch seh sie im Bett liegen mit irgendso einem Spinner!Wer von euch beiden Missgeburten will mich jetzt verarschen?Hör auf zu reden, denn hier gibts nichts mehr zu sagen!Ich schnapp mir den Toy auf ihrem Bett, box ihn gegen jede WandIch dreh gleich durch und zerfetz dich wie ein SägeblattDu fickst die Frau, kommst hier einfach rein und denkstAlles ist cool, das wird ein geiler One Night StandDoch falsch gedacht! Zur falschen Zeit am falschen OrtDas was du siehst bevor du stirbst ist meine Cordon SportIch kick ihn aus dem Raum, gleich in den Flur, er weintVersucht kurz aufzusteh'n, doch ich bleib stur und schreiDu dachtest alles läuft heut nacht so cool, wie du es willstUnd nicht dass ich vorbei komm und dich nach dem Ficken killKennst du das Gefühl, wenn deine Freundin gradIn ihrem Bett liegt und du siehst ein andrer Typ ist daIch sag dir bring sie um, die Frau gleich mit, du weißtAb heute sowieso, dass diese Schlampe auf dich scheißt!Du zahlst den Preis! Am Ende wird es jeder sehnFickst du die falsche Frau, dann nimmt man dir dafür dein Leben!Wie du in deinem Bett sitzt, halbnackt, du DreckstückIch wusste das du so bist, und jeden Dreck fickstNur weil du eine Frau bist und man dir in den Bauch ficktHeißt es nicht, dass ich dich nicht schlage bis du blau bist (Aah!)Wenn es das ist, was du die ganze Zeit wolltestHast du es heute bekommen, indem du Schlampe meinen Stolz fickstIch verachte dich und alles wofür du jetzt stehstAlles was du bist ist ne Lüge, in der du Nutte lebst!Du wirst nie wieder sagen, dass du bei Verwandten bistAb jetzt ist es egal, ob du mit mir nicht einverstanden bistEigentlich bin ich nur gekommen um dir zu sagenDas alles wieder okay ist, um zu sagen, ich versteh' dich
-[Outro: Bushido &amp; Fler]Egal wem du vertraust, du merkst es wird missbrauchtEgal wieviele Menschen kommen, sie werden alle RauchEgal wie oft ich dachte, dass wir uns doch beide liebenIch seh dich in der Hölle Mädchen, Ruhe in Frieden!Egal wem du vertraust, du merkst es wird missbrauchtEgal wieviele Menschen kommen, sie werden alle RauchEgal wie oft ich dachte, dass wir uns doch beide liebenIch seh dich in der Hölle Mädchen, Ruhe in Frieden!</t>
+          <t>[Intro: Mailbox]
+(Nächste Nachricht:)
+„Ey du Spast denkst du kannst mit mir umgehen, Alter? Du Wichser, du Missgeburt, Alter? Wer denkst du wer du bist, Alter? Ey, bist du überhaupt noch klar mit deinem Leben, oder was? Ey, weißt du was, du Wichser, du kannst mich mal so krass am Arsch, Alter. Wenn ich dich's nächste mal seh, ich schwör dir, hau ab, Alter. Renn nur so weit du kannst, Alter, sonst mach ich dich kaputt, Alter!“
+[Part 1: Bushido]
+Ey yo, ich scheiß drauf, ich nehm' mir meine Cordon und hau rein
+Die Nutte fickt meinen Kopf, ich kann jetzt erstmal nicht mehr bei ihr sein
+Ich geh nach draußen und mach mich auf den Weg
+Ich hab den ganzen Tag gestritten, wegen ihr komm ich zu spät(Oh shit)
+Draussen regnet's, nicht nass werden geht nichtMir kommt es vor, als wär die ganze scheiß Welt gegen michIch sitz im Bus, Endstation, und ich muss wieder raus in den RegenWieder raus in mein Leben
+[Part 2: Bushido &amp; Fler]
+Was geht ab bei dir? Ich bin seit halb acht hierIch ruf dich drei mal an, du gehst nicht einmal ranIch steh im Regen, warum kommst du Spast denn jetzt zu spät?
+Ich musste reden weil sie wieder mal am Zeiger dreht!
+Was ist passiert?- Ach scheiße ich bin explodiert
+Die Nutte geht auf Partys und denkt das es mich nicht interessiert
+Komm, klär den Scheiß, mein Wagen steht im Wendekreis
+Ich kenn den Weg von hier -Nur sag mir wie die Straße heißt
+[Skit 1: Bushido &amp; Fler]
+„Ach, die geht mir auf die Nerven alter, verstehste?“
+„Du musst einfach mit ihr reden und dann hat sich alles erledigt, Mann. Sollen wir mit meinem Wagen hinfahren, wir können das regeln.“
+„Mann, ich weiß nicht, Alter.“
+„Ah, das wird schon klappen, Alter.“
+(*Schniefgeräusche*)
+[Part 3: Bushido &amp; Fler]
+Bushido, chill, ist gut, du wirst schon sehn sie tutNur so auf böse und am nächsten Tag ist alles besserSie braucht die Freiheit, die Partys und den HighlifeGib ihr die Chance, du wirst seh'n, dass es dabei bleibtSie sucht den Kompromiss und glaubt an dich und euchDenk dran, was morgen ist und nicht an das was heut'Für Scheiße kam, bald liegt ihr wieder Arm in ArmIn ihrem Bett zu Hause mach den Kopf zu und komm klar
+Mann du hast Recht, im Moment geht's mir zwar schlecht
+Doch wär sie gar nicht mehr hier, hätt ich glaub ich richtig Pech
+Sie bedeutet mir zu viel, als dass ich ohne sie kann
+Sie ist zwar nur 'ne Frau, doch an ihr hängt mir zuviel dran!
+Drück aufs Gas, ich will es klärn
+Heute war nicht so der Tag und aus Fehlern soll man lernen
+Ich werds ihr sagen, jetzt, und nicht irgendwann!
+Fahr nach vorne bis zur Einfahrt, okay gut, halt an!
+[Skit 2: Bushido und Fler]
+„Okay, alles klar, Alter, sehr schön. Ok ich geh jetzt nach oben, Alter (ja), und ich klär die Sache mit der Nutte“
+Aber mach nicht so lange, okay?“
+„Ja, Mann, ich beeil mich, Alter.“
+„Ich steh nicht so lange rum, Alter.“
+„Ey, warte mal kurz.“
+„Was denn?“
+„Was ist das für ein Auto da hinten, Alter?“
+„Kennste nicht den Wagen, Alter?“
+„Ich weiß nicht, Mann. Irgendwie nicht so, Alter.“
+„War der schonmal bei ihr, Alter?
+„Ich weiß nicht, Mann. Aber von wem soll der sonst sein, der steht genau vor ihrer Tür, Mann.“
+„Meinst du, da ist jemand bei ihr, Alter? Krass, Mann.“
+„Ich weiß nicht, Mann. Aber da ist kein Parkplatz, da ist privat, Mann!“
+„Dann lass hoch gehen.“
+„Ok ok, komm mit, komm mit.“
+[Part 4: Bushido &amp; Fler]
+Das was ich sehe reicht, wie stark kann das Gefühl seinWenn du weißt, dass sie dich verarscht, ich trete ihre Tür ein!
+Ab durch den Flur und wir steh'n in ihrem Zimmer
+Ich seh sie im Bett liegen mit irgendso einem Spinner!
+Wer von euch beiden Missgeburten will mich jetzt verarschen?
+Hör auf zu reden, denn hier gibts nichts mehr zu sagen!Ich schnapp mir den Toy auf ihrem Bett, box ihn gegen jede WandIch dreh gleich durch und zerfetz dich wie ein SägeblattDu fickst die Frau, kommst hier einfach rein und denkstAlles ist cool, das wird ein geiler One Night StandDoch falsch gedacht! Zur falschen Zeit am falschen OrtDas was du siehst bevor du stirbst ist meine Cordon SportIch kick ihn aus dem Raum, gleich in den Flur, er weintVersucht kurz aufzusteh'n, doch ich bleib stur und schreiDu dachtest alles läuft heut nacht so cool, wie du es willstUnd nicht dass ich vorbei komm und dich nach dem Ficken killKennst du das Gefühl, wenn deine Freundin gradIn ihrem Bett liegt und du siehst ein andrer Typ ist daIch sag dir bring sie um, die Frau gleich mit, du weißtAb heute sowieso, dass diese Schlampe auf dich scheißt!Du zahlst den Preis! Am Ende wird es jeder sehnFickst du die falsche Frau, dann nimmt man dir dafür dein Leben!
+Wie du in deinem Bett sitzt, halbnackt, du DreckstückIch wusste das du so bist, und jeden Dreck fickstNur weil du eine Frau bist und man dir in den Bauch ficktHeißt es nicht, dass ich dich nicht schlage bis du blau bist (Aah!)
+Wenn es das ist, was du die ganze Zeit wolltest
+Hast du es heute bekommen, indem du Schlampe meinen Stolz fickst
+Ich verachte dich und alles wofür du jetzt stehst
+Alles was du bist ist ne Lüge, in der du Nutte lebst!
+Du wirst nie wieder sagen, dass du bei Verwandten bist
+Ab jetzt ist es egal, ob du mit mir nicht einverstanden bist
+Eigentlich bin ich nur gekommen um dir zu sagen
+Das alles wieder okay ist, um zu sagen, ich versteh' dich
+[Outro: Bushido &amp; Fler]
+Egal wem du vertraust, du merkst es wird missbraucht
+Egal wieviele Menschen kommen, sie werden alle Rauch
+Egal wie oft ich dachte, dass wir uns doch beide lieben
+Ich seh dich in der Hölle Mädchen, Ruhe in Frieden!
+Egal wem du vertraust, du merkst es wird missbraucht
+Egal wieviele Menschen kommen, sie werden alle Rauch
+Egal wie oft ich dachte, dass wir uns doch beide lieben
+Ich seh dich in der Hölle Mädchen, Ruhe in Frieden!</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1289,9 +2243,96 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Songtext zu „Pussy“][Intro: Kobe Tai]„Ride you back and forth, yeahMmh, you getting hard onJust watching me, uhh“[Part 1]Komm lass quatschen, was willst du machen?Sonny, ich hab immer weiße Steine in den TaschenGeh, mach dein Business, Rap, es ist FitnessIch schick dich Kek in den Sarg, weil du Shit bistJetzt ist Party, nimm mich beim WortIch ficke deine Mutter, dein' Rap und dein DorfWarum kackt ihr euch ein? Es ist mein ReimNutte hol die Kinder rein, es ist Crime-TimeWo du eben noch warst, ist jetzt ein LochRede über mich, doch du rappst wie ein FroschHör auf den Beat, sag mir nicht, er geht schon soWer macht Stress? Kommt mit aufs MädchenkloIhr wollt Romantik, ich ficke mit der FaustIch mag es, wenn du weinst, komm Nutte, bounceSpar dir deine Blumen, hoch mit dem RockKomm in meinen Bezirk, ich jag dich um den BlockDu bist eine Schwuchtel wie Dreck auf dem BodenRap und die Drogen, ihr wart mal HeldenHer mit den Felgen, ich box dir deine Reifen breitIhr braucht nicht fluchen, als ob ihr so wie Tyson seidWer soll glauben, dass du jetzt hart geworden bist?Jeder weiß, dass du im meinem Arsch gestorben bistDeine Tracks sind nur rosa und KitschIch bleibe dabei: Deutscher Rap ist eine Bitch
-[Hook]Such dir neue Freunde, für mich bist du ein KrüppelZeig mit dem Finger auf mich, wer ist die Schwuchtel?Wer von euch Spasten reißt jetzt noch sein Maul auf?Wo sind Cowboys? Kommt und ich hau draufGanz egal, was du denkst, du bist nur schwulWas willst du noch hier? Rap ist jetzt mein StuhlDu kannst gehen, denn du bleibst nur 'ne Muschi„stick it in my tight, wet pussy!“Such dir neue Freunde, für mich bist du ein KrüppelZeig mit dem Finger auf mich, wer ist die Schwuchtel?Wer von euch Spasten reißt jetzt noch sein Maul auf?Wo sind Cowboys? Kommt und ich hau draufGanz egal, was du denkst, du bist nur schwulWas willst du noch hier? Rap ist jetzt mein StuhlDu kannst gehen, denn du bleibst nur 'ne Muschi„stick it in my tight, wet pussy!“[Part 2]Du kannst rappen wie du willst, doch du bleibst schwachYeah, es ist einfach, Berlin ist jetzt mein DachIch bin der Typ, der dich ganz einfach umboxtDu der Toy, der auf Partys immer rumkotztEs wird spät, wenn ich erstmal richtig anfang'Siehst du meine Cordon Sport, fühlst du deinen Harndrang?Du bist arm dran, bleib bei deinen SchwuchtelnSieh dich an, vom Reden kriegt man keine MuskelnSonny kidnappt, guck her, ich fick RapWirf deinen Shit weg, gut, jetzt komm mit KeckEs ist mein Job, Hard Rock, mein BlockMeine Gang rockt, ihr floppt, wer schockt?Warum sagst du, du willst mehr als ich?Wenn hier einer fickt, dann bin ich 's, und zwar dichKomm mit nach unten, wir rappen im DunkelnIch mach dir das Licht aus, ruf deine KumpelDu willst Gemeinde, ich mach meine ScheineIch kill euch alleineIch schick die Fotzen wieder weg, weil ich der King binDu hast Angst, weil ich tief in dir drin binFick dein Bling-Bling, ich sehe wie du blutestIch battle mich im Spiegel, weil keiner von euch gut istJetzt ist Sense, ich warte am CornerIch ficke deine Mutter, out of order
-[Hook]Such dir neue Freunde, für mich bist du ein KrüppelZeig mit dem Finger auf mich, wer ist die Schwuchtel?Wer von euch Spasten reißt jetzt noch sein Maul auf?Wo sind Cowboys? Kommt und ich hau draufGanz egal, was du denkst, du bist nur schwulWas willst du noch hier? Rap ist jetzt mein StuhlDu kannst gehen, denn du bleibst nur 'ne Muschi„stick it in my tight, wet pussy!“Such dir neue Freunde, für mich bist du ein KrüppelZeig mit dem Finger auf mich, wer ist die Schwuchtel?Wer von euch Spasten reißt jetzt noch sein Maul auf?Wo sind Cowboys? Kommt und ich hau draufGanz egal, was du denkst, du bist nur schwulWas willst du noch hier? Rap ist jetzt mein StuhlDu kannst gehen, denn du bleibst nur 'ne Muschi„stick it in my tight, wet pussy!“[Outro]Nächste Nachricht:„Hey, Bushido. Gestern Abend, das war richtig geil. Schade, dass du jetzt nicht da bist, weil ich würd' dir gerne sagen, was ich jetzt brauche. Wenn du vielleicht Zeit hättest heute, würd' ich dich gern sehen. Also, ich komm auch zu dir gefahren oder so, wie du möchtest. Oh, du hast mich total, total nass gemacht. Und wir können's ja vielleicht nochmal machen heute Nacht. Hm? Ruf mich doch einfach an. Tschüss!“Ende der Nachricht</t>
+          <t>[Songtext zu „Pussy“]
+[Intro: Kobe Tai]„Ride you back and forth, yeahMmh, you getting hard onJust watching me, uhh“
+[Part 1]
+Komm lass quatschen, was willst du machen?
+Sonny, ich hab immer weiße Steine in den Taschen
+Geh, mach dein Business, Rap, es ist Fitness
+Ich schick dich Kek in den Sarg, weil du Shit bist
+Jetzt ist Party, nimm mich beim Wort
+Ich ficke deine Mutter, dein' Rap und dein Dorf
+Warum kackt ihr euch ein? Es ist mein Reim
+Nutte hol die Kinder rein, es ist Crime-Time
+Wo du eben noch warst, ist jetzt ein Loch
+Rede über mich, doch du rappst wie ein Frosch
+Hör auf den Beat, sag mir nicht, er geht schon so
+Wer macht Stress? Kommt mit aufs Mädchenklo
+Ihr wollt Romantik, ich ficke mit der Faust
+Ich mag es, wenn du weinst, komm Nutte, bounce
+Spar dir deine Blumen, hoch mit dem Rock
+Komm in meinen Bezirk, ich jag dich um den Block
+Du bist eine Schwuchtel wie Dreck auf dem Boden
+Rap und die Drogen, ihr wart mal Helden
+Her mit den Felgen, ich box dir deine Reifen breit
+Ihr braucht nicht fluchen, als ob ihr so wie Tyson seid
+Wer soll glauben, dass du jetzt hart geworden bist?
+Jeder weiß, dass du im meinem Arsch gestorben bist
+Deine Tracks sind nur rosa und Kitsch
+Ich bleibe dabei: Deutscher Rap ist eine Bitch
+[Hook]
+Such dir neue Freunde, für mich bist du ein Krüppel
+Zeig mit dem Finger auf mich, wer ist die Schwuchtel?
+Wer von euch Spasten reißt jetzt noch sein Maul auf?
+Wo sind Cowboys? Kommt und ich hau drauf
+Ganz egal, was du denkst, du bist nur schwul
+Was willst du noch hier? Rap ist jetzt mein Stuhl
+Du kannst gehen, denn du bleibst nur 'ne Muschi
+„stick it in my tight, wet pussy!“
+Such dir neue Freunde, für mich bist du ein Krüppel
+Zeig mit dem Finger auf mich, wer ist die Schwuchtel?
+Wer von euch Spasten reißt jetzt noch sein Maul auf?
+Wo sind Cowboys? Kommt und ich hau drauf
+Ganz egal, was du denkst, du bist nur schwul
+Was willst du noch hier? Rap ist jetzt mein Stuhl
+Du kannst gehen, denn du bleibst nur 'ne Muschi
+„stick it in my tight, wet pussy!“
+[Part 2]
+Du kannst rappen wie du willst, doch du bleibst schwach
+Yeah, es ist einfach, Berlin ist jetzt mein Dach
+Ich bin der Typ, der dich ganz einfach umboxt
+Du der Toy, der auf Partys immer rumkotzt
+Es wird spät, wenn ich erstmal richtig anfang'
+Siehst du meine Cordon Sport, fühlst du deinen Harndrang?
+Du bist arm dran, bleib bei deinen Schwuchteln
+Sieh dich an, vom Reden kriegt man keine Muskeln
+Sonny kidnappt, guck her, ich fick Rap
+Wirf deinen Shit weg, gut, jetzt komm mit Keck
+Es ist mein Job, Hard Rock, mein Block
+Meine Gang rockt, ihr floppt, wer schockt?
+Warum sagst du, du willst mehr als ich?
+Wenn hier einer fickt, dann bin ich 's, und zwar dich
+Komm mit nach unten, wir rappen im Dunkeln
+Ich mach dir das Licht aus, ruf deine Kumpel
+Du willst Gemeinde, ich mach meine Scheine
+Ich kill euch alleine
+Ich schick die Fotzen wieder weg, weil ich der King bin
+Du hast Angst, weil ich tief in dir drin bin
+Fick dein Bling-Bling, ich sehe wie du blutest
+Ich battle mich im Spiegel, weil keiner von euch gut ist
+Jetzt ist Sense, ich warte am Corner
+Ich ficke deine Mutter, out of order
+[Hook]
+Such dir neue Freunde, für mich bist du ein Krüppel
+Zeig mit dem Finger auf mich, wer ist die Schwuchtel?
+Wer von euch Spasten reißt jetzt noch sein Maul auf?
+Wo sind Cowboys? Kommt und ich hau drauf
+Ganz egal, was du denkst, du bist nur schwul
+Was willst du noch hier? Rap ist jetzt mein Stuhl
+Du kannst gehen, denn du bleibst nur 'ne Muschi
+„stick it in my tight, wet pussy!“
+Such dir neue Freunde, für mich bist du ein Krüppel
+Zeig mit dem Finger auf mich, wer ist die Schwuchtel?
+Wer von euch Spasten reißt jetzt noch sein Maul auf?
+Wo sind Cowboys? Kommt und ich hau drauf
+Ganz egal, was du denkst, du bist nur schwul
+Was willst du noch hier? Rap ist jetzt mein Stuhl
+Du kannst gehen, denn du bleibst nur 'ne Muschi
+„stick it in my tight, wet pussy!“
+[Outro]
+Nächste Nachricht:
+„Hey, Bushido. Gestern Abend, das war richtig geil. Schade, dass du jetzt nicht da bist, weil ich würd' dir gerne sagen, was ich jetzt brauche. Wenn du vielleicht Zeit hättest heute, würd' ich dich gern sehen. Also, ich komm auch zu dir gefahren oder so, wie du möchtest. Oh, du hast mich total, total nass gemacht. Und wir können's ja vielleicht nochmal machen heute Nacht. Hm? Ruf mich doch einfach an. Tschüss!“
+Ende der Nachricht</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1345,9 +2386,83 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Part 1: Fler &amp; Bushido]Jetzt kommt meine Zeit, siehst du, wie ich auf dich kacke?Es sind dreißig Grad, trotzdem trage ich meine LederjackeHalt die Klappe, ich bin kriminell gefährlichSag mir, was du brauchst, ich schaff' es ranDie Nachbarschaft hat Angst vor mirWer will mein Feind sein? Und bis zur SkylineIhr kauft unser Tape und denkt, ihr könnt jetzt mit dabei seinWas ist schon Rap? Rap ist nichts, wenn du nichts bistKeiner meiner Freunde rappt, weil ihnen deutscher Rap zu weich istFick auf deine Drecksbeats, Airmax MusikJetzt ist Krieg, fick dein LiebesliedSonny bounced den deepen Beat, kommSonny Techno, raus aus meinem GhettoDu willst böse gucken, doch ich schick' dich auf das Brett, yoDein dickes Haus steht nur drei Bezirke weiterAber trotzdem bist du Spast gleich ums Zwanzigfache reicherSonny, wer ist weicher? Scheiß drauf, es geht weiterIch klau' mir mein Essen und du kaufst dir teure KleiderEs tut mir leid, leider hast du Bastard es verkacktIch bin zwanzig Jahre alt und fick' schon heute deine StadtIch hab' den dicksten Sack, die dickste Stadt, ich fick' dich, SpastEr is' sick und krass denn ich weiß, dass du mich hasst, es passtNicht in dein Konzept, mir egal, ich bleib' perfektIch werf' den Schatten auf die Stadt und seh' zu, wie ihr Toys verrecktWir sind nicht nett, weil wir ab morgen eh schon oben steh'nIch mach' das Fenster auf und seh' die kleinen Kinder Drogen nehmen
-[Hook: Bushido &amp; Fler]Denn vom Bordstein bis zur SkylineSiehst du unsre Welt, wie sie niemals still steht, yeah?Und vom Horizont bis zum AsphaltEs ist unser Leben in der Stadt, die niemals schläft, yeahDenn vom Bordstein bis zur SkylineSiehst du unsre Welt, wie sie niemals still steht, yeah?Und vom Horizont bis zum AsphaltEs ist unser Leben in der Stadt, die niemals schläft, yeah[Part 2: Fler &amp; Bushido]Ihr schreit, „Yeah, yeah!“, yeah, jetzt kommt King FlerLos zeig, wer bringt mehr, du Opfer bring dein'n King herIch bin der Boss, es ist Action aus der GosseSilberketten-Lederjackenrap, ich schlaf' bei deiner Frau im BettWenn ihr schreit, es ist der Rhythm of the NightVom Horizont zum Asphalt, aber hier ist alles meinsJeder weiß, ihr spielt nur, du willst meine FossiluhrIch will mit deiner Mutter ficken, Schwuchtel, jetzt ist Krieg purRenn weg, du Keck, denn Frank White ist der beste ActJeder gibt mir jetzt Respekt, ich rappe auf dem Track perfektDas Ghetto hat einen neuen Star, gib mir dein Geld herIch würde gerne lachen, doch ich gebe zu, es fällt mir schwerWas is mit dir? Was soll sein? Ich bin draufOh shit, ach egal, denn die Kugel liegt im LaufAb ins Haus, ich raub' euch aus, gib mir dein Hab und GutEs ist mein Pflaster und ich schmecke jeden Tag das BlutIch hör' die Fans, du Nutte, jetzt ist Dirty DanceIch treff' mich am Block mit Sonny und geh' los, zerstör' die GangsEs hat kein Sinn, ich steck' in Schulden bis zum KinnIch mach' jetzt den Überfall und zieh' damit den HauptgewinnDu musst auch hart sein, wenn der Beat nicht mehr läuftDoch dann fällt die Fasade und ihr Toys seid wieder deutschIhr habt ein Problem mit dem Stil, den wir LebenDoch ich scheiß' auf deine Sippe, weil wir nichts auf euch geben
-[Hook: Bushido &amp; Fler]Denn vom Bordstein bis zur SkylineSiehst du unsre Welt, wie sie niemals still steht, yeah?Und vom Horizont bis zum AsphaltEs ist unser Leben in der Stadt, die niemals schläft, yeahDenn vom Bordstein bis zur SkylineSiehst du unsre Welt, wie sie niemals still steht, yeah?Und vom Horizont bis zum AsphaltEs ist unser Leben in der Stadt, die niemals schläft, yeahDenn vom Bordstein bis zur SkylineSiehst du unsre Welt, wie sie niemals still steht, yeah?Und vom Horizont bis zum AsphaltEs ist unser Leben in der Stadt, die niemals schläft, yeahDenn vom Bordstein bis zur SkylineSiehst du unsre Welt, wie sie niemals still steht, yeah?Und vom Horizont bis zum AsphaltEs ist unser Leben in der Stadt, die niemals schläft, yeah[Outro: Scratches/Sample]„I spent too many nights sniffin' coke, gettin' rightWastin' my life, now I'm tryin' to make things right“</t>
+          <t>[Part 1: Fler &amp;Bushido]
+Jetzt kommt meine Zeit, siehst du, wie ich auf dich kacke?
+Es sind dreißig Grad, trotzdem trage ich meine Lederjacke
+Halt die Klappe, ich bin kriminell gefährlich
+Sag mir, was du brauchst, ich schaff' es ran
+Die Nachbarschaft hat Angst vor mir
+Wer will mein Feind sein?Und bis zur Skyline
+Ihr kauft unser Tape und denkt, ihr könnt jetzt mit dabei sein
+Was ist schon Rap? Rap ist nichts, wenn du nichts bist
+Keiner meiner Freunde rappt, weil ihnen deutscher Rap zu weich ist
+Fick auf deine Drecksbeats,Airmax Musik
+Jetzt ist Krieg, fick dein LiebesliedSonny bounced den deepen Beat, komm
+Sonny Techno, raus aus meinem Ghetto
+Du willst böse gucken, doch ich schick' dich auf das Brett,yo
+Dein dickes Haus steht nur drei Bezirke weiterAber trotzdem bist du Spast gleich ums Zwanzigfache reicher
+Sonny, wer ist weicher?Scheiß drauf, es geht weiter
+Ich klau' mir mein Essen und du kaufst dir teure Kleider
+Es tut mir leid, leiderhast du Bastard es verkackt
+Ich bin zwanzig Jahre alt und fick' schon heute deine Stadt
+Ich hab' den dicksten Sack, die dickste Stadt, ich fick' dich, Spast
+Er is' sick und krassdenn ich weiß, dass du mich hasst, es passt
+Nicht in dein Konzept, mir egal, ich bleib' perfekt
+Ich werf' den Schatten auf die Stadt und seh' zu, wie ihr Toys verreckt
+Wir sind nicht nett, weil wir ab morgen eh schon oben steh'n
+Ich mach' das Fenster auf und seh' die kleinen Kinder Drogen nehmen
+[Hook: Bushido &amp;Fler]
+Denn vom Bordstein bis zur Skyline
+Siehst du unsre Welt, wie sie niemals still steht, yeah?
+Und vom Horizont bis zum Asphalt
+Es ist unser Leben in der Stadt, die niemals schläft, yeah
+Denn vom Bordstein bis zur Skyline
+Siehst du unsre Welt, wie sie niemals still steht, yeah?
+Und vom Horizont bis zum Asphalt
+Es ist unser Leben in der Stadt, die niemals schläft, yeah
+[Part 2: Fler &amp;Bushido]
+Ihr schreit, „Yeah, yeah!“,yeah, jetzt kommt King Fler
+Los zeig, wer bringt mehr, du Opfer bring dein'n King her
+Ich bin der Boss,es ist Action aus der Gosse
+Silberketten-Lederjackenrap, ich schlaf' bei deiner Frau im Bett
+Wenn ihr schreit,es ist der Rhythm of the Night
+Vom Horizont zum Asphalt, aber hier ist alles meins
+Jeder weiß, ihr spielt nur, du willst meine Fossiluhr
+Ich will mit deiner Mutter ficken, Schwuchtel, jetzt ist Krieg pur
+Renn weg, du Keck,denn Frank White ist der beste Act
+Jeder gibt mir jetzt Respekt, ich rappe auf dem Track perfekt
+Das Ghetto hat einen neuen Star, gib mir dein Geld her
+Ich würde gerne lachen, doch ich gebe zu, es fällt mir schwer
+Was is mit dir?Was soll sein? Ich bin drauf
+Oh shit,ach egal, denn die Kugel liegt im Lauf
+Ab ins Haus, ich raub' euch aus, gib mir dein Hab und Gut
+Es ist mein Pflaster und ich schmecke jeden Tag das Blut
+Ich hör' die Fans,du Nutte, jetzt ist Dirty Dance
+Ich treff' mich am Block mit Sonny und geh' los, zerstör' die Gangs
+Es hat kein Sinn, ich steck' in Schulden bis zum Kinn
+Ich mach' jetzt den Überfall und zieh' damit den Hauptgewinn
+Du musst auch hart sein,wenn der Beat nicht mehr läuft
+Doch dann fällt die Fasade und ihr Toys seid wieder deutsch
+Ihr habt ein Problem mit dem Stil, den wir Leben
+Doch ich scheiß' auf deine Sippe, weil wir nichts auf euch geben
+[Hook: Bushido &amp; Fler]
+Denn vom Bordstein bis zur Skyline
+Siehst du unsre Welt, wie sie niemals still steht, yeah?
+Und vom Horizont bis zum Asphalt
+Es ist unser Leben in der Stadt, die niemals schläft, yeah
+Denn vom Bordstein bis zur Skyline
+Siehst du unsre Welt, wie sie niemals still steht, yeah?
+Und vom Horizont bis zum Asphalt
+Es ist unser Leben in der Stadt, die niemals schläft, yeah
+Denn vom Bordstein bis zur Skyline
+Siehst du unsre Welt, wie sie niemals still steht, yeah?
+Und vom Horizont bis zum Asphalt
+Es ist unser Leben in der Stadt, die niemals schläft, yeah
+Denn vom Bordstein bis zur Skyline
+Siehst du unsre Welt, wie sie niemals still steht, yeah?
+Und vom Horizont bis zum Asphalt
+Es ist unser Leben in der Stadt, die niemals schläft, yeah
+[Outro: Scratches/Sample]„I spent too many nights sniffin' coke, gettin' rightWastin' my life, now I'm tryin' to make things right“</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1401,9 +2516,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Hook/Samples]„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenGhetto werden“[Verse: Sahira]Isha hal ow hal nass raah ikounouI oulou bi khou ou bi khounouFa fakir bi albakY koune salimLa tinsa hal al moufidAna linss law yti3 ghir min ghiriY rjaa âl saghir kabirBass la tinsa
-[Hook/Samples]„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenGhetto werden“[Scratches/Samples]„I put my lifetime, in between the papers line“„Fuck your life“„Make your blood stop flowing“[Hook/Samples]„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“„Deutscher Rap will Ghetto werdenGhetto werden“
-[Outro: Anrufbeantworter]Ende der neuen Nachrichten</t>
+          <t>[Hook/Samples]
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenGhetto werden“
+[Verse: Sahira]
+Isha hal ow hal nass raah ikounou
+I oulou bi khou ou bi khounou
+Fa fakir bi albakY koune salim
+La tinsa hal al moufid
+Ana linss law yti3 ghir min ghiriY rjaa âl saghir kabir
+Bass la tinsa
+[Hook/Samples]
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenGhetto werden“
+[Scratches/Samples]„I put my lifetime, in between the papers line“„Fuck your life“„Make your blood stop flowing“
+[Hook/Samples]
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenDoch die Nutte weiß nicht wie“
+„Ich mach Rap wieder hartBleib ruhig weiter Untergrund“
+„Deutscher Rap will Ghetto werdenGhetto werden“
+[Outro: Anrufbeantworter]
+Ende der neuen Nachrichten</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
